--- a/PIID/PQA.xlsx
+++ b/PIID/PQA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="13545" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -90,9 +90,6 @@
 issues.</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Level 2</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
 applicable standards.</t>
   </si>
   <si>
-    <t>GGE201_AUDITT</t>
-  </si>
-  <si>
     <t>Audit checklist use through out the project life cycle for phase wise audit as procedure or standards.</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
   </si>
   <si>
     <t>Audit report contains all type of NCs observed and resolution and closure.</t>
-  </si>
-  <si>
-    <t>GGE201_MESRPT</t>
   </si>
   <si>
     <t>Process defect density measure and report to Senior management</t>
@@ -152,118 +143,19 @@
 during quality assurance activities.</t>
   </si>
   <si>
-    <t>NC logs identifies gaps in process compliance with categorization (major/minor/observations)</t>
-  </si>
-  <si>
-    <t>Analysis of product defect density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process improvement proposal </t>
-  </si>
-  <si>
     <t>** Minimum 2 and maximum 3 evidences require for each practice</t>
   </si>
   <si>
     <t>Doc</t>
   </si>
   <si>
-    <t xml:space="preserve">I:In closure, Preventive action should also be taken like team training to avoid such type of NC in future projects </t>
-  </si>
-  <si>
-    <t>s:Audit NC log present</t>
-  </si>
-  <si>
-    <t>s: audit plan present</t>
-  </si>
-  <si>
-    <t>w: NC log id not provided in against some NCs</t>
-  </si>
-  <si>
-    <t>s:</t>
-  </si>
-  <si>
     <t>PQA</t>
-  </si>
-  <si>
-    <t>Aff</t>
-  </si>
-  <si>
-    <t>PQA head affirms that audit log is available for NC logging</t>
-  </si>
-  <si>
-    <t>PQA head affirms that audit plan has been prepared using historical data</t>
-  </si>
-  <si>
-    <t>PQA head affirms that objectively evaluation is done for selected practices</t>
-  </si>
-  <si>
-    <t>PQA head affirms that NC are logged and communicated and tracked for closure</t>
-  </si>
-  <si>
-    <t>PQA head affirms that is logged in process improvement proposal</t>
-  </si>
-  <si>
-    <t>PM affirms that audit checklist is available for audit</t>
-  </si>
-  <si>
-    <t>PM affirms that audit done after each phase</t>
-  </si>
-  <si>
-    <t>PM affirms that NC log and resolution done on share point</t>
-  </si>
-  <si>
-    <t>PM affirms that NC recorded in audit log</t>
-  </si>
-  <si>
-    <t>PM affirms that improvement has been logged on share point</t>
-  </si>
-  <si>
-    <t>s: audit log present on share point</t>
-  </si>
-  <si>
-    <t>s: product defect density analysis available</t>
-  </si>
-  <si>
-    <t>W: audit report analysis needs to be actionable and the actions tracked to closure wrt improvements in processes and behaviours.</t>
-  </si>
-  <si>
-    <t>W: Implementation and effectiveness of NC closure must be improved.</t>
-  </si>
-  <si>
-    <t>CHAR - GGE201-FM/LM</t>
   </si>
   <si>
     <t>CHAR - ORG -FM/LM</t>
   </si>
   <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>https://gil.einframe.com/reports/rptincidents.aspx</t>
-  </si>
-  <si>
-    <t>Audit logs identifies gaps in process compliace with categorization (Functional/non-functioanl/observation)</t>
-  </si>
-  <si>
-    <t>https://gil.einframe.com/reports/rptincidentdetails.aspx?id=178</t>
-  </si>
-  <si>
-    <t>PM affirms that project plan has audit plan</t>
-  </si>
-  <si>
     <t>PQAPLN provide guidelines for effective working of PQA function</t>
-  </si>
-  <si>
-    <t>Version history of one audit NC Active and resolved to show identify, record and address.</t>
-  </si>
-  <si>
-    <t>https://gil.einframe.com/rptprojectoverview.aspx</t>
-  </si>
-  <si>
-    <t>https://gil.einframe.com/rptprojecttasks.aspx</t>
   </si>
   <si>
     <t>Audit plan to identify and plan for area of evaluation. (SP10 - task no.1494)</t>
@@ -272,7 +164,55 @@
     <t xml:space="preserve">Audit incident report to evaluate processes </t>
   </si>
   <si>
-    <t>Audit incident logs identifies gaps in process compliace with categorization (functional/non-functional/observations)</t>
+    <t>ORG_Einframe_Incidents_Reports</t>
+  </si>
+  <si>
+    <t>In Einframe Incidents report included identified gaps in process compliace with categorization (Functional/non-functioanl/observation)</t>
+  </si>
+  <si>
+    <t>ORG_Incident_lifecycle</t>
+  </si>
+  <si>
+    <t>CHAR - -FM/LM</t>
+  </si>
+  <si>
+    <t>In Einframe Incident life cycle (Incident id 178) : Version history of one audit NC Active and resolved to show identify, record and address.</t>
+  </si>
+  <si>
+    <t>ORG_PQA_Plan</t>
+  </si>
+  <si>
+    <t>ORG_PQA_Plan_Task_Report</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_Home_Page_Action_Items</t>
+  </si>
+  <si>
+    <t>GGE295_AUDITT</t>
+  </si>
+  <si>
+    <t>Audit incident report identifies gaps in process compliace with categorization (functional/non-functional/observations)</t>
+  </si>
+  <si>
+    <t>GGE295_MESRPT</t>
+  </si>
+  <si>
+    <t>Incident report contains all type of NCs observed and resolution and closure.</t>
+  </si>
+  <si>
+    <t>http://10.141.1.9:8080/svn/PQA/ADTRPT/Sep-22_ADTRPT.xlsx</t>
+  </si>
+  <si>
+    <t>PQA report contains all type of NCs observed and resolution and closure.</t>
+  </si>
+  <si>
+    <t>Incidents report identifies gaps in process compliance with categorization (functional/non-functional/observations)</t>
+  </si>
+  <si>
+    <t>Analysis of product defect density in project</t>
+  </si>
+  <si>
+    <t>Process improvement proposed that identified during audits activities</t>
   </si>
 </sst>
 </file>
@@ -395,18 +335,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -534,7 +468,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -564,9 +498,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
@@ -685,10 +616,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -698,9 +641,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -715,25 +655,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,7 +671,133 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1170,7 +1224,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1184,18 +1238,18 @@
   </sheetPr>
   <dimension ref="A1:R276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
@@ -1203,27 +1257,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="A1" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1262,23 +1316,23 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="63" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="str">
@@ -1286,78 +1340,68 @@
         <v>OK</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="7" t="str">
         <f>IF(MID(H4,2,1)=":",LEFT(H4,1),"-")</f>
-        <v>s</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="4" t="str">
         <f>IF(COUNTIFS($E4,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v/>
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" ref="L4:M19" si="0">IF(COUNTIFS($E4,"*"&amp;L$3&amp;"*")&gt;=1,"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="51"/>
-    </row>
-    <row r="5" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="61"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="62"/>
+    </row>
+    <row r="5" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D68" si="1">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="7" t="str">
         <f>IF(MID(H5,2,1)=":",LEFT(H5,1),"-")</f>
         <v>-</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="4" t="str">
         <f t="shared" ref="K5:M68" si="2">IF(COUNTIFS($E5,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v/>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1366,24 +1410,20 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="51"/>
-    </row>
-    <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="61"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="62"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="7" t="str">
         <f>IF(MID(H6,2,1)=":",LEFT(H6,1),"-")</f>
@@ -1405,24 +1445,20 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="51"/>
-    </row>
-    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="61"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="62"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="7" t="str">
         <f t="shared" ref="I7:I68" si="3">IF(MID(H7,2,1)=":",LEFT(H7,1),"-")</f>
@@ -1444,13 +1480,13 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="51"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="62"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1479,13 +1515,13 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="51"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="62"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1514,13 +1550,13 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="51"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1549,13 +1585,13 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="51"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1584,13 +1620,13 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="51"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1619,13 +1655,13 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="51"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="61"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1654,13 +1690,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="51"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="61"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1689,13 +1725,13 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="51"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1724,13 +1760,13 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="51"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1759,13 +1795,13 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="51"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1794,13 +1830,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="51"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="61"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1829,38 +1865,36 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="51"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="55">
+        <v>2.1</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="52">
-        <v>2.1</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>17</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>-</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="4" t="str">
@@ -1869,38 +1903,34 @@
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="51"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="55"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="7" t="str">
@@ -1914,7 +1944,7 @@
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1923,24 +1953,26 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="51"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="62"/>
     </row>
     <row r="21" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="55"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="7" t="str">
         <f t="shared" si="3"/>
@@ -1953,7 +1985,7 @@
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1962,22 +1994,26 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="51"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="62"/>
     </row>
     <row r="22" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="55"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E22" s="50"/>
+        <v>OK</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="F22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="7" t="str">
         <f t="shared" si="3"/>
@@ -1990,33 +2026,29 @@
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M22" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="51"/>
-    </row>
-    <row r="23" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="55"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="62"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="7" t="str">
         <f t="shared" si="3"/>
@@ -2038,24 +2070,20 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="51"/>
-    </row>
-    <row r="24" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="55"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="62"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="7" t="str">
         <f t="shared" si="3"/>
@@ -2077,13 +2105,13 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="51"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="62"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2092,9 +2120,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2111,13 +2137,13 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="51"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="62"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="55"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2146,13 +2172,13 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="51"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="62"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="55"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2181,13 +2207,13 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="51"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="62"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="55"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2216,13 +2242,13 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="51"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="62"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="55"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2251,13 +2277,13 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="51"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="62"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="55"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2286,13 +2312,13 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="51"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="62"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="55"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2321,13 +2347,13 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="51"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="62"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="55"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2356,13 +2382,13 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="51"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="62"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2391,16 +2417,16 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="51"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="62"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52">
+      <c r="A34" s="62"/>
+      <c r="B34" s="55">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C34" s="55" t="s">
-        <v>21</v>
+      <c r="C34" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="D34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2427,39 +2453,33 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="51"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="62"/>
     </row>
     <row r="35" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="55"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>-</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="4" t="str">
@@ -2468,7 +2488,7 @@
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2477,37 +2497,35 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="51"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="62"/>
     </row>
     <row r="36" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="55"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E36" s="50" t="s">
-        <v>22</v>
+      <c r="E36" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>w</v>
+        <v>-</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2520,25 +2538,25 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="51"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="62"/>
     </row>
     <row r="37" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="55"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="7" t="str">
@@ -2552,7 +2570,7 @@
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" si="2"/>
@@ -2561,30 +2579,24 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="51"/>
-    </row>
-    <row r="38" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="55"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="62"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>I</v>
+        <v>-</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="4" t="str">
@@ -2602,24 +2614,20 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="51"/>
-    </row>
-    <row r="39" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="55"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="62"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="4"/>
       <c r="I39" s="7" t="str">
         <f t="shared" si="3"/>
@@ -2641,13 +2649,13 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="51"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="62"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="55"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2676,13 +2684,13 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="51"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="62"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="55"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2711,13 +2719,13 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="51"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="62"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2746,13 +2754,13 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="51"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="62"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="55"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2781,13 +2789,13 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="51"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="62"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="55"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2816,13 +2824,13 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="51"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="62"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="55"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2851,13 +2859,13 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="51"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="62"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2886,13 +2894,13 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="51"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="62"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="55"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2921,13 +2929,13 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="51"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="62"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2956,36 +2964,34 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="51"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="62"/>
     </row>
     <row r="49" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52">
+      <c r="A49" s="62"/>
+      <c r="B49" s="55">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C49" s="55" t="s">
-        <v>25</v>
+      <c r="C49" s="54" t="s">
+        <v>23</v>
       </c>
       <c r="D49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>-</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="4" t="str">
@@ -2994,37 +3000,35 @@
       </c>
       <c r="L49" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M49" s="4" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N49" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="9"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="51"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="62"/>
     </row>
     <row r="50" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="55"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="7" t="str">
         <f t="shared" si="3"/>
@@ -3037,7 +3041,7 @@
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M50" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3046,24 +3050,26 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="51"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="62"/>
     </row>
     <row r="51" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="55"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E51" s="50" t="s">
-        <v>27</v>
+      <c r="E51" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="7" t="str">
         <f t="shared" si="3"/>
@@ -3072,7 +3078,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3085,24 +3091,26 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="51"/>
-    </row>
-    <row r="52" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="55"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="62"/>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="62"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="7" t="str">
         <f t="shared" si="3"/>
@@ -3115,7 +3123,7 @@
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M52" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3124,24 +3132,20 @@
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="51"/>
-    </row>
-    <row r="53" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="55"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="62"/>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="62"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="4"/>
       <c r="I53" s="7" t="str">
         <f t="shared" si="3"/>
@@ -3163,24 +3167,20 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="51"/>
-    </row>
-    <row r="54" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="55"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="62"/>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="62"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="4"/>
       <c r="I54" s="7" t="str">
         <f t="shared" si="3"/>
@@ -3202,13 +3202,13 @@
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="51"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="62"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="55"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3237,13 +3237,13 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="51"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="62"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="55"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3272,13 +3272,13 @@
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="51"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="62"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="55"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3307,13 +3307,13 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="51"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="62"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="55"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3342,13 +3342,13 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="51"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="62"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="55"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3377,13 +3377,13 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="51"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="62"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="55"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3412,13 +3412,13 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="51"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="62"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="55"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3447,13 +3447,13 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="51"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="62"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="55"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3482,13 +3482,13 @@
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="51"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="62"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3517,29 +3517,29 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="51"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="62"/>
     </row>
     <row r="64" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="52">
+      <c r="A64" s="62"/>
+      <c r="B64" s="55">
         <v>2.4</v>
       </c>
-      <c r="C64" s="55" t="s">
-        <v>30</v>
+      <c r="C64" s="54" t="s">
+        <v>27</v>
       </c>
       <c r="D64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="7" t="str">
@@ -3553,45 +3553,39 @@
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N64" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
       <c r="P64" s="9"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="51"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="62"/>
     </row>
     <row r="65" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="55"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H65" s="4"/>
       <c r="I65" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>-</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="4" t="str">
@@ -3600,7 +3594,7 @@
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M65" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3609,35 +3603,35 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="51"/>
-    </row>
-    <row r="66" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="55"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="62"/>
+    </row>
+    <row r="66" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="62"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E66" s="50" t="s">
-        <v>27</v>
+      <c r="E66" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="4"/>
       <c r="I66" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>-</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3650,24 +3644,20 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="51"/>
-    </row>
-    <row r="67" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="55"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="62"/>
+    </row>
+    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="62"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="4"/>
       <c r="I67" s="7" t="str">
         <f t="shared" si="3"/>
@@ -3689,24 +3679,20 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="51"/>
-    </row>
-    <row r="68" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="55"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="62"/>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="62"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E68" s="8"/>
-      <c r="F68" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="4"/>
       <c r="I68" s="7" t="str">
         <f t="shared" si="3"/>
@@ -3728,13 +3714,13 @@
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="51"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="62"/>
     </row>
     <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="55"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="4" t="str">
         <f t="shared" ref="D69:D132" si="5">IF(LEN(E69)&gt;5,IF(LEN(K69&amp;L69&amp;M69)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3763,13 +3749,13 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="51"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="62"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="55"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3798,13 +3784,13 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="51"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="62"/>
     </row>
     <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="55"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3833,13 +3819,13 @@
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="51"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="62"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="55"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3868,13 +3854,13 @@
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="51"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="62"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="55"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3903,13 +3889,13 @@
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="51"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="62"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="55"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3938,13 +3924,13 @@
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
-      <c r="Q74" s="53"/>
-      <c r="R74" s="51"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="62"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="55"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3973,13 +3959,13 @@
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="51"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="62"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="55"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4008,13 +3994,13 @@
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
-      <c r="Q76" s="53"/>
-      <c r="R76" s="51"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="62"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="55"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4043,13 +4029,13 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="51"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="62"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4078,34 +4064,36 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="51"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="62"/>
     </row>
     <row r="79" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="52">
+      <c r="A79" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="55">
         <v>3.1</v>
       </c>
-      <c r="C79" s="55" t="s">
-        <v>32</v>
+      <c r="C79" s="54" t="s">
+        <v>29</v>
       </c>
       <c r="D79" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>OK</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="4"/>
       <c r="I79" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>W</v>
+        <v>-</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="4" t="str">
@@ -4118,39 +4106,35 @@
       </c>
       <c r="M79" s="4" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N79" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>X</v>
+      </c>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
       <c r="P79" s="9"/>
-      <c r="Q79" s="52"/>
-      <c r="R79" s="51"/>
+      <c r="Q79" s="55"/>
+      <c r="R79" s="62"/>
     </row>
     <row r="80" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="55"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F80" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="4"/>
       <c r="I80" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>s</v>
+        <v>-</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="4" t="str">
@@ -4159,7 +4143,7 @@
       </c>
       <c r="L80" s="4" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M80" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4168,22 +4152,26 @@
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="51"/>
-    </row>
-    <row r="81" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="55"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="62"/>
+    </row>
+    <row r="81" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="62"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" s="9"/>
+        <v>OK</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H81" s="4"/>
       <c r="I81" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4200,29 +4188,31 @@
       </c>
       <c r="M81" s="4" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="51"/>
-    </row>
-    <row r="82" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="55"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="62"/>
+    </row>
+    <row r="82" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="62"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="4" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4235,7 +4225,7 @@
       </c>
       <c r="L82" s="4" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M82" s="4" t="str">
         <f t="shared" si="7"/>
@@ -4244,24 +4234,20 @@
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="51"/>
-    </row>
-    <row r="83" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="55"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="62"/>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="62"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="9"/>
       <c r="H83" s="4"/>
       <c r="I83" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4283,24 +4269,20 @@
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="51"/>
-    </row>
-    <row r="84" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="55"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="62"/>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="62"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="9"/>
       <c r="H84" s="4"/>
       <c r="I84" s="7" t="str">
         <f t="shared" si="6"/>
@@ -4322,18 +4304,18 @@
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
-      <c r="Q84" s="53"/>
-      <c r="R84" s="51"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="62"/>
     </row>
     <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="55"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E85" s="12"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="6"/>
       <c r="G85" s="9"/>
       <c r="H85" s="4"/>
@@ -4357,13 +4339,13 @@
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
-      <c r="Q85" s="53"/>
-      <c r="R85" s="51"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="62"/>
     </row>
     <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="55"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4392,13 +4374,13 @@
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="51"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="62"/>
     </row>
     <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="55"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4427,13 +4409,13 @@
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="51"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="62"/>
     </row>
     <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="55"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4462,13 +4444,13 @@
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
-      <c r="Q88" s="53"/>
-      <c r="R88" s="51"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="62"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="55"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4497,13 +4479,13 @@
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
-      <c r="Q89" s="53"/>
-      <c r="R89" s="51"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="62"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="55"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4532,13 +4514,13 @@
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
-      <c r="Q90" s="53"/>
-      <c r="R90" s="51"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="62"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="55"/>
+      <c r="A91" s="62"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4567,13 +4549,13 @@
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
-      <c r="Q91" s="53"/>
-      <c r="R91" s="51"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="62"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="55"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4602,19 +4584,19 @@
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
-      <c r="Q92" s="53"/>
-      <c r="R92" s="51"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="62"/>
     </row>
     <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="55"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
       <c r="G93" s="9"/>
       <c r="H93" s="4"/>
       <c r="I93" s="7" t="str">
@@ -4637,19 +4619,19 @@
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
-      <c r="Q93" s="54"/>
-      <c r="R93" s="51"/>
+      <c r="Q93" s="57"/>
+      <c r="R93" s="62"/>
     </row>
     <row r="94" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="61"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="F94" s="13"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="12"/>
       <c r="G94" s="9"/>
       <c r="H94" s="4"/>
       <c r="I94" s="7" t="str">
@@ -4672,19 +4654,19 @@
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
-      <c r="Q94" s="62"/>
-      <c r="R94" s="65"/>
+      <c r="Q94" s="49"/>
+      <c r="R94" s="53"/>
     </row>
     <row r="95" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="61"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E95" s="8"/>
-      <c r="F95" s="17"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="9"/>
       <c r="H95" s="4"/>
       <c r="I95" s="7" t="str">
@@ -4707,19 +4689,19 @@
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
-      <c r="Q95" s="63"/>
-      <c r="R95" s="65"/>
+      <c r="Q95" s="50"/>
+      <c r="R95" s="53"/>
     </row>
     <row r="96" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="61"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E96" s="8"/>
-      <c r="F96" s="17"/>
+      <c r="F96" s="16"/>
       <c r="G96" s="9"/>
       <c r="H96" s="4"/>
       <c r="I96" s="7" t="str">
@@ -4742,19 +4724,19 @@
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
-      <c r="Q96" s="63"/>
-      <c r="R96" s="65"/>
+      <c r="Q96" s="50"/>
+      <c r="R96" s="53"/>
     </row>
     <row r="97" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
-      <c r="B97" s="63"/>
-      <c r="C97" s="61"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
       <c r="G97" s="9"/>
       <c r="H97" s="4"/>
       <c r="I97" s="7" t="str">
@@ -4777,19 +4759,19 @@
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
-      <c r="Q97" s="63"/>
-      <c r="R97" s="65"/>
+      <c r="Q97" s="50"/>
+      <c r="R97" s="53"/>
     </row>
     <row r="98" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="63"/>
-      <c r="C98" s="61"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="52"/>
       <c r="D98" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
       <c r="G98" s="9"/>
       <c r="H98" s="4"/>
       <c r="I98" s="7" t="str">
@@ -4812,19 +4794,19 @@
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
-      <c r="Q98" s="63"/>
-      <c r="R98" s="65"/>
+      <c r="Q98" s="50"/>
+      <c r="R98" s="53"/>
     </row>
     <row r="99" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="61"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
       <c r="G99" s="9"/>
       <c r="H99" s="4"/>
       <c r="I99" s="7" t="str">
@@ -4847,19 +4829,19 @@
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
-      <c r="Q99" s="63"/>
-      <c r="R99" s="65"/>
+      <c r="Q99" s="50"/>
+      <c r="R99" s="53"/>
     </row>
     <row r="100" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="61"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
       <c r="G100" s="9"/>
       <c r="H100" s="4"/>
       <c r="I100" s="7" t="str">
@@ -4882,19 +4864,19 @@
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
       <c r="P100" s="9"/>
-      <c r="Q100" s="63"/>
-      <c r="R100" s="65"/>
+      <c r="Q100" s="50"/>
+      <c r="R100" s="53"/>
     </row>
     <row r="101" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="B101" s="63"/>
-      <c r="C101" s="61"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
       <c r="G101" s="9"/>
       <c r="H101" s="4"/>
       <c r="I101" s="7" t="str">
@@ -4917,19 +4899,19 @@
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
-      <c r="Q101" s="63"/>
-      <c r="R101" s="65"/>
+      <c r="Q101" s="50"/>
+      <c r="R101" s="53"/>
     </row>
     <row r="102" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="61"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="52"/>
       <c r="D102" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
       <c r="G102" s="9"/>
       <c r="H102" s="4"/>
       <c r="I102" s="7" t="str">
@@ -4952,19 +4934,19 @@
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
-      <c r="Q102" s="63"/>
-      <c r="R102" s="65"/>
+      <c r="Q102" s="50"/>
+      <c r="R102" s="53"/>
     </row>
     <row r="103" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="63"/>
-      <c r="C103" s="61"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E103" s="18"/>
-      <c r="F103" s="13"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="12"/>
       <c r="G103" s="9"/>
       <c r="H103" s="4"/>
       <c r="I103" s="7" t="str">
@@ -4987,19 +4969,19 @@
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
-      <c r="Q103" s="63"/>
-      <c r="R103" s="65"/>
+      <c r="Q103" s="50"/>
+      <c r="R103" s="53"/>
     </row>
     <row r="104" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="61"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E104" s="15"/>
-      <c r="F104" s="13"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="12"/>
       <c r="G104" s="9"/>
       <c r="H104" s="4"/>
       <c r="I104" s="7" t="str">
@@ -5022,19 +5004,19 @@
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
       <c r="P104" s="9"/>
-      <c r="Q104" s="63"/>
-      <c r="R104" s="65"/>
+      <c r="Q104" s="50"/>
+      <c r="R104" s="53"/>
     </row>
     <row r="105" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="63"/>
-      <c r="C105" s="61"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
       <c r="G105" s="9"/>
       <c r="H105" s="4"/>
       <c r="I105" s="7" t="str">
@@ -5057,19 +5039,19 @@
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
-      <c r="Q105" s="63"/>
-      <c r="R105" s="65"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="53"/>
     </row>
     <row r="106" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="63"/>
-      <c r="C106" s="61"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="52"/>
       <c r="D106" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="9"/>
       <c r="H106" s="4"/>
       <c r="I106" s="7" t="str">
@@ -5092,19 +5074,19 @@
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
-      <c r="Q106" s="63"/>
-      <c r="R106" s="65"/>
+      <c r="Q106" s="50"/>
+      <c r="R106" s="53"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
-      <c r="B107" s="63"/>
-      <c r="C107" s="61"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="52"/>
       <c r="D107" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
       <c r="G107" s="9"/>
       <c r="H107" s="4"/>
       <c r="I107" s="7" t="str">
@@ -5127,19 +5109,19 @@
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
-      <c r="Q107" s="63"/>
-      <c r="R107" s="65"/>
+      <c r="Q107" s="50"/>
+      <c r="R107" s="53"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="61"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
       <c r="G108" s="9"/>
       <c r="H108" s="4"/>
       <c r="I108" s="7" t="str">
@@ -5162,19 +5144,19 @@
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
       <c r="P108" s="9"/>
-      <c r="Q108" s="64"/>
-      <c r="R108" s="65"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="53"/>
     </row>
     <row r="109" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
-      <c r="B109" s="62"/>
-      <c r="C109" s="55"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="13"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="12"/>
       <c r="G109" s="9"/>
       <c r="H109" s="4"/>
       <c r="I109" s="7" t="str">
@@ -5197,19 +5179,19 @@
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
-      <c r="Q109" s="62"/>
-      <c r="R109" s="65"/>
+      <c r="Q109" s="49"/>
+      <c r="R109" s="53"/>
     </row>
     <row r="110" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="55"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="54"/>
       <c r="D110" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="13"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="12"/>
       <c r="G110" s="9"/>
       <c r="H110" s="4"/>
       <c r="I110" s="7" t="str">
@@ -5232,13 +5214,13 @@
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
       <c r="P110" s="9"/>
-      <c r="Q110" s="63"/>
-      <c r="R110" s="65"/>
+      <c r="Q110" s="50"/>
+      <c r="R110" s="53"/>
     </row>
     <row r="111" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="63"/>
-      <c r="C111" s="55"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="54"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5267,13 +5249,13 @@
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
       <c r="P111" s="9"/>
-      <c r="Q111" s="63"/>
-      <c r="R111" s="65"/>
+      <c r="Q111" s="50"/>
+      <c r="R111" s="53"/>
     </row>
     <row r="112" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="63"/>
-      <c r="C112" s="55"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="54"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5302,13 +5284,13 @@
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
-      <c r="Q112" s="63"/>
-      <c r="R112" s="65"/>
+      <c r="Q112" s="50"/>
+      <c r="R112" s="53"/>
     </row>
     <row r="113" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="63"/>
-      <c r="C113" s="55"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="54"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5337,13 +5319,13 @@
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
-      <c r="Q113" s="63"/>
-      <c r="R113" s="65"/>
+      <c r="Q113" s="50"/>
+      <c r="R113" s="53"/>
     </row>
     <row r="114" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
-      <c r="B114" s="63"/>
-      <c r="C114" s="55"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="54"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5372,19 +5354,19 @@
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
       <c r="P114" s="9"/>
-      <c r="Q114" s="63"/>
-      <c r="R114" s="65"/>
+      <c r="Q114" s="50"/>
+      <c r="R114" s="53"/>
     </row>
     <row r="115" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="63"/>
-      <c r="C115" s="55"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
       <c r="G115" s="9"/>
       <c r="H115" s="4"/>
       <c r="I115" s="7" t="str">
@@ -5407,19 +5389,19 @@
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
       <c r="P115" s="9"/>
-      <c r="Q115" s="63"/>
-      <c r="R115" s="65"/>
+      <c r="Q115" s="50"/>
+      <c r="R115" s="53"/>
     </row>
     <row r="116" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
-      <c r="B116" s="63"/>
-      <c r="C116" s="55"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="54"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
       <c r="G116" s="9"/>
       <c r="H116" s="4"/>
       <c r="I116" s="7" t="str">
@@ -5442,19 +5424,19 @@
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
       <c r="P116" s="9"/>
-      <c r="Q116" s="63"/>
-      <c r="R116" s="65"/>
+      <c r="Q116" s="50"/>
+      <c r="R116" s="53"/>
     </row>
     <row r="117" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
-      <c r="B117" s="63"/>
-      <c r="C117" s="55"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
       <c r="G117" s="9"/>
       <c r="H117" s="4"/>
       <c r="I117" s="7" t="str">
@@ -5477,19 +5459,19 @@
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
       <c r="P117" s="9"/>
-      <c r="Q117" s="63"/>
-      <c r="R117" s="65"/>
+      <c r="Q117" s="50"/>
+      <c r="R117" s="53"/>
     </row>
     <row r="118" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
-      <c r="B118" s="63"/>
-      <c r="C118" s="55"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
       <c r="G118" s="9"/>
       <c r="H118" s="4"/>
       <c r="I118" s="7" t="str">
@@ -5512,19 +5494,19 @@
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
       <c r="P118" s="9"/>
-      <c r="Q118" s="63"/>
-      <c r="R118" s="65"/>
+      <c r="Q118" s="50"/>
+      <c r="R118" s="53"/>
     </row>
     <row r="119" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="16"/>
-      <c r="B119" s="63"/>
-      <c r="C119" s="55"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
       <c r="G119" s="9"/>
       <c r="H119" s="4"/>
       <c r="I119" s="7" t="str">
@@ -5547,19 +5529,19 @@
       <c r="N119" s="9"/>
       <c r="O119" s="9"/>
       <c r="P119" s="9"/>
-      <c r="Q119" s="63"/>
-      <c r="R119" s="65"/>
+      <c r="Q119" s="50"/>
+      <c r="R119" s="53"/>
     </row>
     <row r="120" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="63"/>
-      <c r="C120" s="55"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
       <c r="G120" s="9"/>
       <c r="H120" s="4"/>
       <c r="I120" s="7" t="str">
@@ -5582,18 +5564,18 @@
       <c r="N120" s="9"/>
       <c r="O120" s="9"/>
       <c r="P120" s="9"/>
-      <c r="Q120" s="63"/>
-      <c r="R120" s="65"/>
+      <c r="Q120" s="50"/>
+      <c r="R120" s="53"/>
     </row>
     <row r="121" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
-      <c r="B121" s="63"/>
-      <c r="C121" s="55"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F121" s="13"/>
+      <c r="F121" s="12"/>
       <c r="G121" s="9"/>
       <c r="H121" s="4"/>
       <c r="I121" s="7" t="str">
@@ -5616,18 +5598,18 @@
       <c r="N121" s="9"/>
       <c r="O121" s="9"/>
       <c r="P121" s="9"/>
-      <c r="Q121" s="63"/>
-      <c r="R121" s="65"/>
+      <c r="Q121" s="50"/>
+      <c r="R121" s="53"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="63"/>
-      <c r="C122" s="55"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="54"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F122" s="13"/>
+      <c r="F122" s="12"/>
       <c r="G122" s="9"/>
       <c r="H122" s="4"/>
       <c r="I122" s="7" t="str">
@@ -5650,18 +5632,18 @@
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
-      <c r="Q122" s="63"/>
-      <c r="R122" s="65"/>
+      <c r="Q122" s="50"/>
+      <c r="R122" s="53"/>
     </row>
     <row r="123" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="16"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="55"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F123" s="13"/>
+      <c r="F123" s="12"/>
       <c r="G123" s="9"/>
       <c r="H123" s="4"/>
       <c r="I123" s="7" t="str">
@@ -5684,19 +5666,19 @@
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
       <c r="P123" s="9"/>
-      <c r="Q123" s="64"/>
-      <c r="R123" s="65"/>
+      <c r="Q123" s="51"/>
+      <c r="R123" s="53"/>
     </row>
     <row r="124" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="61"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="52"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E124" s="19"/>
-      <c r="F124" s="20"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="19"/>
       <c r="G124" s="9"/>
       <c r="H124" s="4"/>
       <c r="I124" s="7" t="str">
@@ -5719,19 +5701,19 @@
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
       <c r="P124" s="9"/>
-      <c r="Q124" s="62"/>
-      <c r="R124" s="65"/>
+      <c r="Q124" s="49"/>
+      <c r="R124" s="53"/>
     </row>
     <row r="125" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
-      <c r="B125" s="63"/>
-      <c r="C125" s="61"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="52"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="13"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="12"/>
       <c r="G125" s="9"/>
       <c r="H125" s="4"/>
       <c r="I125" s="7" t="str">
@@ -5754,13 +5736,13 @@
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
       <c r="P125" s="9"/>
-      <c r="Q125" s="63"/>
-      <c r="R125" s="65"/>
+      <c r="Q125" s="50"/>
+      <c r="R125" s="53"/>
     </row>
     <row r="126" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="63"/>
-      <c r="C126" s="61"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="52"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5789,13 +5771,13 @@
       <c r="N126" s="9"/>
       <c r="O126" s="9"/>
       <c r="P126" s="9"/>
-      <c r="Q126" s="63"/>
-      <c r="R126" s="65"/>
+      <c r="Q126" s="50"/>
+      <c r="R126" s="53"/>
     </row>
     <row r="127" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
-      <c r="B127" s="63"/>
-      <c r="C127" s="61"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="52"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5824,13 +5806,13 @@
       <c r="N127" s="9"/>
       <c r="O127" s="9"/>
       <c r="P127" s="9"/>
-      <c r="Q127" s="63"/>
-      <c r="R127" s="65"/>
+      <c r="Q127" s="50"/>
+      <c r="R127" s="53"/>
     </row>
     <row r="128" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
-      <c r="B128" s="63"/>
-      <c r="C128" s="61"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="52"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5859,13 +5841,13 @@
       <c r="N128" s="9"/>
       <c r="O128" s="9"/>
       <c r="P128" s="9"/>
-      <c r="Q128" s="63"/>
-      <c r="R128" s="65"/>
+      <c r="Q128" s="50"/>
+      <c r="R128" s="53"/>
     </row>
     <row r="129" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
-      <c r="B129" s="63"/>
-      <c r="C129" s="61"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="52"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5894,13 +5876,13 @@
       <c r="N129" s="9"/>
       <c r="O129" s="9"/>
       <c r="P129" s="9"/>
-      <c r="Q129" s="63"/>
-      <c r="R129" s="65"/>
+      <c r="Q129" s="50"/>
+      <c r="R129" s="53"/>
     </row>
     <row r="130" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="63"/>
-      <c r="C130" s="61"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="52"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5929,18 +5911,18 @@
       <c r="N130" s="9"/>
       <c r="O130" s="9"/>
       <c r="P130" s="9"/>
-      <c r="Q130" s="63"/>
-      <c r="R130" s="65"/>
+      <c r="Q130" s="50"/>
+      <c r="R130" s="53"/>
     </row>
     <row r="131" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
-      <c r="B131" s="63"/>
-      <c r="C131" s="61"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="52"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="F131" s="13"/>
+      <c r="F131" s="12"/>
       <c r="G131" s="9"/>
       <c r="H131" s="4"/>
       <c r="I131" s="7" t="str">
@@ -5963,19 +5945,19 @@
       <c r="N131" s="9"/>
       <c r="O131" s="9"/>
       <c r="P131" s="9"/>
-      <c r="Q131" s="63"/>
-      <c r="R131" s="65"/>
+      <c r="Q131" s="50"/>
+      <c r="R131" s="53"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="16"/>
-      <c r="B132" s="63"/>
-      <c r="C132" s="61"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="52"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
       <c r="G132" s="9"/>
       <c r="H132" s="4"/>
       <c r="I132" s="7" t="str">
@@ -5998,18 +5980,18 @@
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
       <c r="P132" s="9"/>
-      <c r="Q132" s="63"/>
-      <c r="R132" s="65"/>
+      <c r="Q132" s="50"/>
+      <c r="R132" s="53"/>
     </row>
     <row r="133" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="16"/>
-      <c r="B133" s="63"/>
-      <c r="C133" s="61"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="52"/>
       <c r="D133" s="4" t="str">
         <f t="shared" ref="D133:D196" si="8">IF(LEN(E133)&gt;5,IF(LEN(K133&amp;L133&amp;M133)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
       </c>
-      <c r="F133" s="13"/>
+      <c r="F133" s="12"/>
       <c r="G133" s="9"/>
       <c r="H133" s="4"/>
       <c r="I133" s="7" t="str">
@@ -6032,19 +6014,19 @@
       <c r="N133" s="9"/>
       <c r="O133" s="9"/>
       <c r="P133" s="9"/>
-      <c r="Q133" s="63"/>
-      <c r="R133" s="65"/>
+      <c r="Q133" s="50"/>
+      <c r="R133" s="53"/>
     </row>
     <row r="134" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
-      <c r="B134" s="63"/>
-      <c r="C134" s="61"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="52"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
       <c r="G134" s="9"/>
       <c r="H134" s="4"/>
       <c r="I134" s="7" t="str">
@@ -6067,19 +6049,19 @@
       <c r="N134" s="9"/>
       <c r="O134" s="9"/>
       <c r="P134" s="9"/>
-      <c r="Q134" s="63"/>
-      <c r="R134" s="65"/>
+      <c r="Q134" s="50"/>
+      <c r="R134" s="53"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
-      <c r="B135" s="63"/>
-      <c r="C135" s="61"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="52"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
       <c r="G135" s="9"/>
       <c r="H135" s="4"/>
       <c r="I135" s="7" t="str">
@@ -6102,19 +6084,19 @@
       <c r="N135" s="9"/>
       <c r="O135" s="9"/>
       <c r="P135" s="9"/>
-      <c r="Q135" s="63"/>
-      <c r="R135" s="65"/>
+      <c r="Q135" s="50"/>
+      <c r="R135" s="53"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
-      <c r="B136" s="63"/>
-      <c r="C136" s="61"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="52"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
       <c r="G136" s="9"/>
       <c r="H136" s="4"/>
       <c r="I136" s="7" t="str">
@@ -6137,19 +6119,19 @@
       <c r="N136" s="9"/>
       <c r="O136" s="9"/>
       <c r="P136" s="9"/>
-      <c r="Q136" s="63"/>
-      <c r="R136" s="65"/>
+      <c r="Q136" s="50"/>
+      <c r="R136" s="53"/>
     </row>
     <row r="137" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
-      <c r="B137" s="63"/>
-      <c r="C137" s="61"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="52"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
       <c r="G137" s="9"/>
       <c r="H137" s="4"/>
       <c r="I137" s="7" t="str">
@@ -6172,19 +6154,19 @@
       <c r="N137" s="9"/>
       <c r="O137" s="9"/>
       <c r="P137" s="9"/>
-      <c r="Q137" s="63"/>
-      <c r="R137" s="65"/>
+      <c r="Q137" s="50"/>
+      <c r="R137" s="53"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="61"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="52"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
       <c r="G138" s="9"/>
       <c r="H138" s="4"/>
       <c r="I138" s="7" t="str">
@@ -6207,18 +6189,18 @@
       <c r="N138" s="9"/>
       <c r="O138" s="9"/>
       <c r="P138" s="9"/>
-      <c r="Q138" s="64"/>
-      <c r="R138" s="65"/>
+      <c r="Q138" s="51"/>
+      <c r="R138" s="53"/>
     </row>
     <row r="139" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
-      <c r="B139" s="62"/>
-      <c r="C139" s="61"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="49"/>
+      <c r="C139" s="52"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="F139" s="13"/>
+      <c r="F139" s="12"/>
       <c r="G139" s="9"/>
       <c r="H139" s="4"/>
       <c r="I139" s="7" t="str">
@@ -6241,19 +6223,19 @@
       <c r="N139" s="9"/>
       <c r="O139" s="9"/>
       <c r="P139" s="9"/>
-      <c r="Q139" s="62"/>
-      <c r="R139" s="65"/>
+      <c r="Q139" s="49"/>
+      <c r="R139" s="53"/>
     </row>
     <row r="140" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
-      <c r="B140" s="63"/>
-      <c r="C140" s="61"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="52"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E140" s="21"/>
-      <c r="F140" s="13"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="12"/>
       <c r="G140" s="9"/>
       <c r="H140" s="4"/>
       <c r="I140" s="7" t="str">
@@ -6276,13 +6258,13 @@
       <c r="N140" s="9"/>
       <c r="O140" s="9"/>
       <c r="P140" s="9"/>
-      <c r="Q140" s="63"/>
-      <c r="R140" s="65"/>
+      <c r="Q140" s="50"/>
+      <c r="R140" s="53"/>
     </row>
     <row r="141" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="63"/>
-      <c r="C141" s="61"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="52"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6311,13 +6293,13 @@
       <c r="N141" s="9"/>
       <c r="O141" s="9"/>
       <c r="P141" s="9"/>
-      <c r="Q141" s="63"/>
-      <c r="R141" s="65"/>
+      <c r="Q141" s="50"/>
+      <c r="R141" s="53"/>
     </row>
     <row r="142" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
-      <c r="B142" s="63"/>
-      <c r="C142" s="61"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="50"/>
+      <c r="C142" s="52"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6346,13 +6328,13 @@
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
       <c r="P142" s="9"/>
-      <c r="Q142" s="63"/>
-      <c r="R142" s="65"/>
+      <c r="Q142" s="50"/>
+      <c r="R142" s="53"/>
     </row>
     <row r="143" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" s="63"/>
-      <c r="C143" s="61"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6381,19 +6363,19 @@
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
       <c r="P143" s="9"/>
-      <c r="Q143" s="63"/>
-      <c r="R143" s="65"/>
+      <c r="Q143" s="50"/>
+      <c r="R143" s="53"/>
     </row>
     <row r="144" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
-      <c r="B144" s="63"/>
-      <c r="C144" s="61"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="52"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
       <c r="G144" s="9"/>
       <c r="H144" s="4"/>
       <c r="I144" s="7" t="str">
@@ -6416,19 +6398,19 @@
       <c r="N144" s="9"/>
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
-      <c r="Q144" s="63"/>
-      <c r="R144" s="65"/>
+      <c r="Q144" s="50"/>
+      <c r="R144" s="53"/>
     </row>
     <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
-      <c r="B145" s="63"/>
-      <c r="C145" s="61"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="52"/>
       <c r="D145" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
       <c r="G145" s="9"/>
       <c r="H145" s="4"/>
       <c r="I145" s="7" t="str">
@@ -6451,19 +6433,19 @@
       <c r="N145" s="9"/>
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
-      <c r="Q145" s="63"/>
-      <c r="R145" s="65"/>
+      <c r="Q145" s="50"/>
+      <c r="R145" s="53"/>
     </row>
     <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
-      <c r="B146" s="63"/>
-      <c r="C146" s="61"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="50"/>
+      <c r="C146" s="52"/>
       <c r="D146" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
       <c r="G146" s="9"/>
       <c r="H146" s="4"/>
       <c r="I146" s="7" t="str">
@@ -6486,19 +6468,19 @@
       <c r="N146" s="9"/>
       <c r="O146" s="9"/>
       <c r="P146" s="9"/>
-      <c r="Q146" s="63"/>
-      <c r="R146" s="65"/>
+      <c r="Q146" s="50"/>
+      <c r="R146" s="53"/>
     </row>
     <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
-      <c r="B147" s="63"/>
-      <c r="C147" s="61"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="52"/>
       <c r="D147" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
       <c r="G147" s="9"/>
       <c r="H147" s="4"/>
       <c r="I147" s="7" t="str">
@@ -6521,19 +6503,19 @@
       <c r="N147" s="9"/>
       <c r="O147" s="9"/>
       <c r="P147" s="9"/>
-      <c r="Q147" s="63"/>
-      <c r="R147" s="65"/>
+      <c r="Q147" s="50"/>
+      <c r="R147" s="53"/>
     </row>
     <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="16"/>
-      <c r="B148" s="63"/>
-      <c r="C148" s="61"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="52"/>
       <c r="D148" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E148" s="19"/>
-      <c r="F148" s="13"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="12"/>
       <c r="G148" s="9"/>
       <c r="H148" s="4"/>
       <c r="I148" s="7" t="str">
@@ -6556,19 +6538,19 @@
       <c r="N148" s="9"/>
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
-      <c r="Q148" s="63"/>
-      <c r="R148" s="65"/>
+      <c r="Q148" s="50"/>
+      <c r="R148" s="53"/>
     </row>
     <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="16"/>
-      <c r="B149" s="63"/>
-      <c r="C149" s="61"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="52"/>
       <c r="D149" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="13"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="12"/>
       <c r="G149" s="9"/>
       <c r="H149" s="4"/>
       <c r="I149" s="7" t="str">
@@ -6591,19 +6573,19 @@
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
-      <c r="Q149" s="63"/>
-      <c r="R149" s="65"/>
+      <c r="Q149" s="50"/>
+      <c r="R149" s="53"/>
     </row>
     <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
-      <c r="B150" s="63"/>
-      <c r="C150" s="61"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="50"/>
+      <c r="C150" s="52"/>
       <c r="D150" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E150" s="22"/>
-      <c r="F150" s="13"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="12"/>
       <c r="G150" s="9"/>
       <c r="H150" s="4"/>
       <c r="I150" s="7" t="str">
@@ -6626,19 +6608,19 @@
       <c r="N150" s="9"/>
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
-      <c r="Q150" s="63"/>
-      <c r="R150" s="65"/>
+      <c r="Q150" s="50"/>
+      <c r="R150" s="53"/>
     </row>
     <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="16"/>
-      <c r="B151" s="63"/>
-      <c r="C151" s="61"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="52"/>
       <c r="D151" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E151" s="22"/>
-      <c r="F151" s="13"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="12"/>
       <c r="G151" s="9"/>
       <c r="H151" s="4"/>
       <c r="I151" s="7" t="str">
@@ -6661,19 +6643,19 @@
       <c r="N151" s="9"/>
       <c r="O151" s="9"/>
       <c r="P151" s="9"/>
-      <c r="Q151" s="63"/>
-      <c r="R151" s="65"/>
+      <c r="Q151" s="50"/>
+      <c r="R151" s="53"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="16"/>
-      <c r="B152" s="63"/>
-      <c r="C152" s="61"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="50"/>
+      <c r="C152" s="52"/>
       <c r="D152" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E152" s="22"/>
-      <c r="F152" s="13"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="12"/>
       <c r="G152" s="9"/>
       <c r="H152" s="4"/>
       <c r="I152" s="7" t="str">
@@ -6696,19 +6678,19 @@
       <c r="N152" s="9"/>
       <c r="O152" s="9"/>
       <c r="P152" s="9"/>
-      <c r="Q152" s="63"/>
-      <c r="R152" s="65"/>
+      <c r="Q152" s="50"/>
+      <c r="R152" s="53"/>
     </row>
     <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="16"/>
-      <c r="B153" s="64"/>
-      <c r="C153" s="61"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="52"/>
       <c r="D153" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E153" s="22"/>
-      <c r="F153" s="13"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="12"/>
       <c r="G153" s="9"/>
       <c r="H153" s="4"/>
       <c r="I153" s="7" t="str">
@@ -6731,19 +6713,19 @@
       <c r="N153" s="9"/>
       <c r="O153" s="9"/>
       <c r="P153" s="9"/>
-      <c r="Q153" s="64"/>
-      <c r="R153" s="65"/>
+      <c r="Q153" s="51"/>
+      <c r="R153" s="53"/>
     </row>
     <row r="154" spans="1:18" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
-      <c r="B154" s="62"/>
-      <c r="C154" s="61"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="49"/>
+      <c r="C154" s="52"/>
       <c r="D154" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E154" s="18"/>
-      <c r="F154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="16"/>
       <c r="G154" s="9"/>
       <c r="H154" s="4"/>
       <c r="I154" s="7" t="str">
@@ -6766,19 +6748,19 @@
       <c r="N154" s="9"/>
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
-      <c r="Q154" s="62"/>
-      <c r="R154" s="65"/>
+      <c r="Q154" s="49"/>
+      <c r="R154" s="53"/>
     </row>
     <row r="155" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="16"/>
-      <c r="B155" s="63"/>
-      <c r="C155" s="61"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="52"/>
       <c r="D155" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E155" s="15"/>
-      <c r="F155" s="23"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="22"/>
       <c r="G155" s="9"/>
       <c r="H155" s="4"/>
       <c r="I155" s="7" t="str">
@@ -6801,19 +6783,19 @@
       <c r="N155" s="9"/>
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
-      <c r="Q155" s="63"/>
-      <c r="R155" s="65"/>
+      <c r="Q155" s="50"/>
+      <c r="R155" s="53"/>
     </row>
     <row r="156" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="16"/>
-      <c r="B156" s="63"/>
-      <c r="C156" s="61"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="52"/>
       <c r="D156" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
       <c r="E156" s="8"/>
-      <c r="F156" s="24"/>
+      <c r="F156" s="23"/>
       <c r="G156" s="9"/>
       <c r="H156" s="4"/>
       <c r="I156" s="7" t="str">
@@ -6836,19 +6818,19 @@
       <c r="N156" s="9"/>
       <c r="O156" s="9"/>
       <c r="P156" s="9"/>
-      <c r="Q156" s="63"/>
-      <c r="R156" s="65"/>
+      <c r="Q156" s="50"/>
+      <c r="R156" s="53"/>
     </row>
     <row r="157" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="16"/>
-      <c r="B157" s="63"/>
-      <c r="C157" s="61"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="50"/>
+      <c r="C157" s="52"/>
       <c r="D157" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
       <c r="E157" s="8"/>
-      <c r="F157" s="24"/>
+      <c r="F157" s="23"/>
       <c r="G157" s="9"/>
       <c r="H157" s="4"/>
       <c r="I157" s="7" t="str">
@@ -6871,19 +6853,19 @@
       <c r="N157" s="9"/>
       <c r="O157" s="9"/>
       <c r="P157" s="9"/>
-      <c r="Q157" s="63"/>
-      <c r="R157" s="65"/>
+      <c r="Q157" s="50"/>
+      <c r="R157" s="53"/>
     </row>
     <row r="158" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="16"/>
-      <c r="B158" s="63"/>
-      <c r="C158" s="61"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="52"/>
       <c r="D158" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
       <c r="E158" s="8"/>
-      <c r="F158" s="24"/>
+      <c r="F158" s="23"/>
       <c r="G158" s="9"/>
       <c r="H158" s="4"/>
       <c r="I158" s="7" t="str">
@@ -6906,19 +6888,19 @@
       <c r="N158" s="9"/>
       <c r="O158" s="9"/>
       <c r="P158" s="9"/>
-      <c r="Q158" s="63"/>
-      <c r="R158" s="65"/>
+      <c r="Q158" s="50"/>
+      <c r="R158" s="53"/>
     </row>
     <row r="159" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
-      <c r="B159" s="63"/>
-      <c r="C159" s="61"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="50"/>
+      <c r="C159" s="52"/>
       <c r="D159" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
       <c r="E159" s="8"/>
-      <c r="F159" s="24"/>
+      <c r="F159" s="23"/>
       <c r="G159" s="9"/>
       <c r="H159" s="4"/>
       <c r="I159" s="7" t="str">
@@ -6941,19 +6923,19 @@
       <c r="N159" s="9"/>
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
-      <c r="Q159" s="63"/>
-      <c r="R159" s="65"/>
+      <c r="Q159" s="50"/>
+      <c r="R159" s="53"/>
     </row>
     <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="16"/>
-      <c r="B160" s="63"/>
-      <c r="C160" s="61"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="52"/>
       <c r="D160" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
       <c r="G160" s="9"/>
       <c r="H160" s="4"/>
       <c r="I160" s="7" t="str">
@@ -6976,19 +6958,19 @@
       <c r="N160" s="9"/>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
-      <c r="Q160" s="63"/>
-      <c r="R160" s="65"/>
+      <c r="Q160" s="50"/>
+      <c r="R160" s="53"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
-      <c r="B161" s="63"/>
-      <c r="C161" s="61"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="50"/>
+      <c r="C161" s="52"/>
       <c r="D161" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
       <c r="G161" s="9"/>
       <c r="H161" s="4"/>
       <c r="I161" s="7" t="str">
@@ -7011,19 +6993,19 @@
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
       <c r="P161" s="9"/>
-      <c r="Q161" s="63"/>
-      <c r="R161" s="65"/>
+      <c r="Q161" s="50"/>
+      <c r="R161" s="53"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="16"/>
-      <c r="B162" s="63"/>
-      <c r="C162" s="61"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="50"/>
+      <c r="C162" s="52"/>
       <c r="D162" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
       <c r="G162" s="9"/>
       <c r="H162" s="4"/>
       <c r="I162" s="7" t="str">
@@ -7046,19 +7028,19 @@
       <c r="N162" s="9"/>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
-      <c r="Q162" s="63"/>
-      <c r="R162" s="65"/>
+      <c r="Q162" s="50"/>
+      <c r="R162" s="53"/>
     </row>
     <row r="163" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
-      <c r="B163" s="63"/>
-      <c r="C163" s="61"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="50"/>
+      <c r="C163" s="52"/>
       <c r="D163" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E163" s="16"/>
-      <c r="F163" s="13"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="12"/>
       <c r="G163" s="9"/>
       <c r="H163" s="4"/>
       <c r="I163" s="7" t="str">
@@ -7081,19 +7063,19 @@
       <c r="N163" s="9"/>
       <c r="O163" s="9"/>
       <c r="P163" s="9"/>
-      <c r="Q163" s="63"/>
-      <c r="R163" s="65"/>
+      <c r="Q163" s="50"/>
+      <c r="R163" s="53"/>
     </row>
     <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
-      <c r="B164" s="63"/>
-      <c r="C164" s="61"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="50"/>
+      <c r="C164" s="52"/>
       <c r="D164" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E164" s="16"/>
-      <c r="F164" s="13"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="12"/>
       <c r="G164" s="9"/>
       <c r="H164" s="4"/>
       <c r="I164" s="7" t="str">
@@ -7116,19 +7098,19 @@
       <c r="N164" s="9"/>
       <c r="O164" s="9"/>
       <c r="P164" s="9"/>
-      <c r="Q164" s="63"/>
-      <c r="R164" s="65"/>
+      <c r="Q164" s="50"/>
+      <c r="R164" s="53"/>
     </row>
     <row r="165" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="16"/>
-      <c r="B165" s="63"/>
-      <c r="C165" s="61"/>
+      <c r="A165" s="15"/>
+      <c r="B165" s="50"/>
+      <c r="C165" s="52"/>
       <c r="D165" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E165" s="16"/>
-      <c r="F165" s="13"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="12"/>
       <c r="G165" s="9"/>
       <c r="H165" s="4"/>
       <c r="I165" s="7" t="str">
@@ -7151,19 +7133,19 @@
       <c r="N165" s="9"/>
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
-      <c r="Q165" s="63"/>
-      <c r="R165" s="65"/>
+      <c r="Q165" s="50"/>
+      <c r="R165" s="53"/>
     </row>
     <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="16"/>
-      <c r="B166" s="63"/>
-      <c r="C166" s="61"/>
+      <c r="A166" s="15"/>
+      <c r="B166" s="50"/>
+      <c r="C166" s="52"/>
       <c r="D166" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E166" s="16"/>
-      <c r="F166" s="13"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="12"/>
       <c r="G166" s="9"/>
       <c r="H166" s="4"/>
       <c r="I166" s="7" t="str">
@@ -7186,19 +7168,19 @@
       <c r="N166" s="9"/>
       <c r="O166" s="9"/>
       <c r="P166" s="9"/>
-      <c r="Q166" s="63"/>
-      <c r="R166" s="65"/>
+      <c r="Q166" s="50"/>
+      <c r="R166" s="53"/>
     </row>
     <row r="167" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="16"/>
-      <c r="B167" s="63"/>
-      <c r="C167" s="61"/>
+      <c r="A167" s="15"/>
+      <c r="B167" s="50"/>
+      <c r="C167" s="52"/>
       <c r="D167" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E167" s="16"/>
-      <c r="F167" s="13"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="12"/>
       <c r="G167" s="9"/>
       <c r="H167" s="4"/>
       <c r="I167" s="7" t="str">
@@ -7221,19 +7203,19 @@
       <c r="N167" s="9"/>
       <c r="O167" s="9"/>
       <c r="P167" s="9"/>
-      <c r="Q167" s="63"/>
-      <c r="R167" s="65"/>
+      <c r="Q167" s="50"/>
+      <c r="R167" s="53"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="16"/>
-      <c r="B168" s="64"/>
-      <c r="C168" s="61"/>
+      <c r="A168" s="15"/>
+      <c r="B168" s="51"/>
+      <c r="C168" s="52"/>
       <c r="D168" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E168" s="25"/>
-      <c r="F168" s="13"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="12"/>
       <c r="G168" s="9"/>
       <c r="H168" s="4"/>
       <c r="I168" s="7" t="str">
@@ -7256,18 +7238,18 @@
       <c r="N168" s="9"/>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
-      <c r="Q168" s="64"/>
-      <c r="R168" s="65"/>
+      <c r="Q168" s="51"/>
+      <c r="R168" s="53"/>
     </row>
     <row r="169" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="16"/>
-      <c r="B169" s="62"/>
-      <c r="C169" s="61"/>
+      <c r="A169" s="15"/>
+      <c r="B169" s="49"/>
+      <c r="C169" s="52"/>
       <c r="D169" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E169" s="18"/>
+      <c r="E169" s="17"/>
       <c r="F169" s="6"/>
       <c r="G169" s="9"/>
       <c r="H169" s="4"/>
@@ -7291,19 +7273,19 @@
       <c r="N169" s="9"/>
       <c r="O169" s="9"/>
       <c r="P169" s="9"/>
-      <c r="Q169" s="62"/>
-      <c r="R169" s="65"/>
+      <c r="Q169" s="49"/>
+      <c r="R169" s="53"/>
     </row>
     <row r="170" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="16"/>
-      <c r="B170" s="63"/>
-      <c r="C170" s="61"/>
+      <c r="A170" s="15"/>
+      <c r="B170" s="50"/>
+      <c r="C170" s="52"/>
       <c r="D170" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E170" s="15"/>
-      <c r="F170" s="13"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="12"/>
       <c r="G170" s="9"/>
       <c r="H170" s="4"/>
       <c r="I170" s="7" t="str">
@@ -7326,13 +7308,13 @@
       <c r="N170" s="9"/>
       <c r="O170" s="9"/>
       <c r="P170" s="9"/>
-      <c r="Q170" s="63"/>
-      <c r="R170" s="65"/>
+      <c r="Q170" s="50"/>
+      <c r="R170" s="53"/>
     </row>
     <row r="171" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="16"/>
-      <c r="B171" s="63"/>
-      <c r="C171" s="61"/>
+      <c r="A171" s="15"/>
+      <c r="B171" s="50"/>
+      <c r="C171" s="52"/>
       <c r="D171" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7361,13 +7343,13 @@
       <c r="N171" s="9"/>
       <c r="O171" s="9"/>
       <c r="P171" s="9"/>
-      <c r="Q171" s="63"/>
-      <c r="R171" s="65"/>
+      <c r="Q171" s="50"/>
+      <c r="R171" s="53"/>
     </row>
     <row r="172" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="16"/>
-      <c r="B172" s="63"/>
-      <c r="C172" s="61"/>
+      <c r="A172" s="15"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="52"/>
       <c r="D172" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7396,13 +7378,13 @@
       <c r="N172" s="9"/>
       <c r="O172" s="9"/>
       <c r="P172" s="9"/>
-      <c r="Q172" s="63"/>
-      <c r="R172" s="65"/>
+      <c r="Q172" s="50"/>
+      <c r="R172" s="53"/>
     </row>
     <row r="173" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="16"/>
-      <c r="B173" s="63"/>
-      <c r="C173" s="61"/>
+      <c r="A173" s="15"/>
+      <c r="B173" s="50"/>
+      <c r="C173" s="52"/>
       <c r="D173" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7431,19 +7413,19 @@
       <c r="N173" s="9"/>
       <c r="O173" s="9"/>
       <c r="P173" s="9"/>
-      <c r="Q173" s="63"/>
-      <c r="R173" s="65"/>
+      <c r="Q173" s="50"/>
+      <c r="R173" s="53"/>
     </row>
     <row r="174" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="16"/>
-      <c r="B174" s="63"/>
-      <c r="C174" s="61"/>
+      <c r="A174" s="15"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="52"/>
       <c r="D174" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E174" s="26"/>
-      <c r="F174" s="13"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="12"/>
       <c r="G174" s="9"/>
       <c r="H174" s="4"/>
       <c r="I174" s="7" t="str">
@@ -7466,19 +7448,19 @@
       <c r="N174" s="9"/>
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
-      <c r="Q174" s="63"/>
-      <c r="R174" s="65"/>
+      <c r="Q174" s="50"/>
+      <c r="R174" s="53"/>
     </row>
     <row r="175" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="16"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="61"/>
+      <c r="A175" s="15"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="52"/>
       <c r="D175" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E175" s="26"/>
-      <c r="F175" s="13"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="12"/>
       <c r="G175" s="9"/>
       <c r="H175" s="4"/>
       <c r="I175" s="7" t="str">
@@ -7501,19 +7483,19 @@
       <c r="N175" s="9"/>
       <c r="O175" s="9"/>
       <c r="P175" s="9"/>
-      <c r="Q175" s="63"/>
-      <c r="R175" s="65"/>
+      <c r="Q175" s="50"/>
+      <c r="R175" s="53"/>
     </row>
     <row r="176" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="16"/>
-      <c r="B176" s="63"/>
-      <c r="C176" s="61"/>
+      <c r="A176" s="15"/>
+      <c r="B176" s="50"/>
+      <c r="C176" s="52"/>
       <c r="D176" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E176" s="26"/>
-      <c r="F176" s="13"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="12"/>
       <c r="G176" s="9"/>
       <c r="H176" s="4"/>
       <c r="I176" s="7" t="str">
@@ -7536,19 +7518,19 @@
       <c r="N176" s="9"/>
       <c r="O176" s="9"/>
       <c r="P176" s="9"/>
-      <c r="Q176" s="63"/>
-      <c r="R176" s="65"/>
+      <c r="Q176" s="50"/>
+      <c r="R176" s="53"/>
     </row>
     <row r="177" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="16"/>
-      <c r="B177" s="63"/>
-      <c r="C177" s="61"/>
+      <c r="A177" s="15"/>
+      <c r="B177" s="50"/>
+      <c r="C177" s="52"/>
       <c r="D177" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E177" s="26"/>
-      <c r="F177" s="13"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="12"/>
       <c r="G177" s="9"/>
       <c r="H177" s="4"/>
       <c r="I177" s="7" t="str">
@@ -7571,19 +7553,19 @@
       <c r="N177" s="9"/>
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
-      <c r="Q177" s="63"/>
-      <c r="R177" s="65"/>
+      <c r="Q177" s="50"/>
+      <c r="R177" s="53"/>
     </row>
     <row r="178" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="16"/>
-      <c r="B178" s="63"/>
-      <c r="C178" s="61"/>
+      <c r="A178" s="15"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="52"/>
       <c r="D178" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E178" s="26"/>
-      <c r="F178" s="13"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="12"/>
       <c r="G178" s="9"/>
       <c r="H178" s="4"/>
       <c r="I178" s="7" t="str">
@@ -7606,19 +7588,19 @@
       <c r="N178" s="9"/>
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
-      <c r="Q178" s="63"/>
-      <c r="R178" s="65"/>
+      <c r="Q178" s="50"/>
+      <c r="R178" s="53"/>
     </row>
     <row r="179" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="16"/>
-      <c r="B179" s="63"/>
-      <c r="C179" s="61"/>
+      <c r="A179" s="15"/>
+      <c r="B179" s="50"/>
+      <c r="C179" s="52"/>
       <c r="D179" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E179" s="26"/>
-      <c r="F179" s="13"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="12"/>
       <c r="G179" s="9"/>
       <c r="H179" s="4"/>
       <c r="I179" s="7" t="str">
@@ -7641,19 +7623,19 @@
       <c r="N179" s="9"/>
       <c r="O179" s="9"/>
       <c r="P179" s="9"/>
-      <c r="Q179" s="63"/>
-      <c r="R179" s="65"/>
+      <c r="Q179" s="50"/>
+      <c r="R179" s="53"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="16"/>
-      <c r="B180" s="63"/>
-      <c r="C180" s="61"/>
+      <c r="A180" s="15"/>
+      <c r="B180" s="50"/>
+      <c r="C180" s="52"/>
       <c r="D180" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E180" s="26"/>
-      <c r="F180" s="13"/>
+      <c r="E180" s="25"/>
+      <c r="F180" s="12"/>
       <c r="G180" s="9"/>
       <c r="H180" s="4"/>
       <c r="I180" s="7" t="str">
@@ -7676,19 +7658,19 @@
       <c r="N180" s="9"/>
       <c r="O180" s="9"/>
       <c r="P180" s="9"/>
-      <c r="Q180" s="63"/>
-      <c r="R180" s="65"/>
+      <c r="Q180" s="50"/>
+      <c r="R180" s="53"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="16"/>
-      <c r="B181" s="63"/>
-      <c r="C181" s="61"/>
+      <c r="A181" s="15"/>
+      <c r="B181" s="50"/>
+      <c r="C181" s="52"/>
       <c r="D181" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E181" s="26"/>
-      <c r="F181" s="13"/>
+      <c r="E181" s="25"/>
+      <c r="F181" s="12"/>
       <c r="G181" s="9"/>
       <c r="H181" s="4"/>
       <c r="I181" s="7" t="str">
@@ -7711,19 +7693,19 @@
       <c r="N181" s="9"/>
       <c r="O181" s="9"/>
       <c r="P181" s="9"/>
-      <c r="Q181" s="63"/>
-      <c r="R181" s="65"/>
+      <c r="Q181" s="50"/>
+      <c r="R181" s="53"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="16"/>
-      <c r="B182" s="63"/>
-      <c r="C182" s="61"/>
+      <c r="A182" s="15"/>
+      <c r="B182" s="50"/>
+      <c r="C182" s="52"/>
       <c r="D182" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E182" s="26"/>
-      <c r="F182" s="13"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="12"/>
       <c r="G182" s="9"/>
       <c r="H182" s="4"/>
       <c r="I182" s="7" t="str">
@@ -7746,19 +7728,19 @@
       <c r="N182" s="9"/>
       <c r="O182" s="9"/>
       <c r="P182" s="9"/>
-      <c r="Q182" s="63"/>
-      <c r="R182" s="65"/>
+      <c r="Q182" s="50"/>
+      <c r="R182" s="53"/>
     </row>
     <row r="183" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="16"/>
-      <c r="B183" s="64"/>
-      <c r="C183" s="61"/>
+      <c r="A183" s="15"/>
+      <c r="B183" s="51"/>
+      <c r="C183" s="52"/>
       <c r="D183" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E183" s="26"/>
-      <c r="F183" s="13"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="12"/>
       <c r="G183" s="9"/>
       <c r="H183" s="4"/>
       <c r="I183" s="7" t="str">
@@ -7781,19 +7763,19 @@
       <c r="N183" s="9"/>
       <c r="O183" s="9"/>
       <c r="P183" s="9"/>
-      <c r="Q183" s="64"/>
-      <c r="R183" s="65"/>
+      <c r="Q183" s="51"/>
+      <c r="R183" s="53"/>
     </row>
     <row r="184" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="16"/>
-      <c r="B184" s="62"/>
-      <c r="C184" s="61"/>
+      <c r="A184" s="15"/>
+      <c r="B184" s="49"/>
+      <c r="C184" s="52"/>
       <c r="D184" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E184" s="27"/>
-      <c r="F184" s="13"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="12"/>
       <c r="G184" s="9"/>
       <c r="H184" s="4"/>
       <c r="I184" s="7" t="str">
@@ -7816,19 +7798,19 @@
       <c r="N184" s="9"/>
       <c r="O184" s="9"/>
       <c r="P184" s="9"/>
-      <c r="Q184" s="62"/>
-      <c r="R184" s="65"/>
+      <c r="Q184" s="49"/>
+      <c r="R184" s="53"/>
     </row>
     <row r="185" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="16"/>
-      <c r="B185" s="63"/>
-      <c r="C185" s="61"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="50"/>
+      <c r="C185" s="52"/>
       <c r="D185" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E185" s="21"/>
-      <c r="F185" s="13"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="12"/>
       <c r="G185" s="9"/>
       <c r="H185" s="4"/>
       <c r="I185" s="7" t="str">
@@ -7851,13 +7833,13 @@
       <c r="N185" s="9"/>
       <c r="O185" s="9"/>
       <c r="P185" s="9"/>
-      <c r="Q185" s="63"/>
-      <c r="R185" s="65"/>
+      <c r="Q185" s="50"/>
+      <c r="R185" s="53"/>
     </row>
     <row r="186" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="16"/>
-      <c r="B186" s="63"/>
-      <c r="C186" s="61"/>
+      <c r="A186" s="15"/>
+      <c r="B186" s="50"/>
+      <c r="C186" s="52"/>
       <c r="D186" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7886,13 +7868,13 @@
       <c r="N186" s="9"/>
       <c r="O186" s="9"/>
       <c r="P186" s="9"/>
-      <c r="Q186" s="63"/>
-      <c r="R186" s="65"/>
+      <c r="Q186" s="50"/>
+      <c r="R186" s="53"/>
     </row>
     <row r="187" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="16"/>
-      <c r="B187" s="63"/>
-      <c r="C187" s="61"/>
+      <c r="A187" s="15"/>
+      <c r="B187" s="50"/>
+      <c r="C187" s="52"/>
       <c r="D187" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7921,13 +7903,13 @@
       <c r="N187" s="9"/>
       <c r="O187" s="9"/>
       <c r="P187" s="9"/>
-      <c r="Q187" s="63"/>
-      <c r="R187" s="65"/>
+      <c r="Q187" s="50"/>
+      <c r="R187" s="53"/>
     </row>
     <row r="188" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="16"/>
-      <c r="B188" s="63"/>
-      <c r="C188" s="61"/>
+      <c r="A188" s="15"/>
+      <c r="B188" s="50"/>
+      <c r="C188" s="52"/>
       <c r="D188" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7956,13 +7938,13 @@
       <c r="N188" s="9"/>
       <c r="O188" s="9"/>
       <c r="P188" s="9"/>
-      <c r="Q188" s="63"/>
-      <c r="R188" s="65"/>
+      <c r="Q188" s="50"/>
+      <c r="R188" s="53"/>
     </row>
     <row r="189" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="16"/>
-      <c r="B189" s="63"/>
-      <c r="C189" s="61"/>
+      <c r="A189" s="15"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="52"/>
       <c r="D189" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7991,19 +7973,19 @@
       <c r="N189" s="9"/>
       <c r="O189" s="9"/>
       <c r="P189" s="9"/>
-      <c r="Q189" s="63"/>
-      <c r="R189" s="65"/>
+      <c r="Q189" s="50"/>
+      <c r="R189" s="53"/>
     </row>
     <row r="190" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="16"/>
-      <c r="B190" s="63"/>
-      <c r="C190" s="61"/>
+      <c r="A190" s="15"/>
+      <c r="B190" s="50"/>
+      <c r="C190" s="52"/>
       <c r="D190" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E190" s="26"/>
-      <c r="F190" s="13"/>
+      <c r="E190" s="25"/>
+      <c r="F190" s="12"/>
       <c r="G190" s="9"/>
       <c r="H190" s="4"/>
       <c r="I190" s="7" t="str">
@@ -8026,19 +8008,19 @@
       <c r="N190" s="9"/>
       <c r="O190" s="9"/>
       <c r="P190" s="9"/>
-      <c r="Q190" s="63"/>
-      <c r="R190" s="65"/>
+      <c r="Q190" s="50"/>
+      <c r="R190" s="53"/>
     </row>
     <row r="191" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="16"/>
-      <c r="B191" s="63"/>
-      <c r="C191" s="61"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="50"/>
+      <c r="C191" s="52"/>
       <c r="D191" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E191" s="26"/>
-      <c r="F191" s="13"/>
+      <c r="E191" s="25"/>
+      <c r="F191" s="12"/>
       <c r="G191" s="9"/>
       <c r="H191" s="4"/>
       <c r="I191" s="7" t="str">
@@ -8061,19 +8043,19 @@
       <c r="N191" s="9"/>
       <c r="O191" s="9"/>
       <c r="P191" s="9"/>
-      <c r="Q191" s="63"/>
-      <c r="R191" s="65"/>
+      <c r="Q191" s="50"/>
+      <c r="R191" s="53"/>
     </row>
     <row r="192" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="16"/>
-      <c r="B192" s="63"/>
-      <c r="C192" s="61"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="50"/>
+      <c r="C192" s="52"/>
       <c r="D192" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E192" s="26"/>
-      <c r="F192" s="13"/>
+      <c r="E192" s="25"/>
+      <c r="F192" s="12"/>
       <c r="G192" s="9"/>
       <c r="H192" s="4"/>
       <c r="I192" s="7" t="str">
@@ -8096,23 +8078,23 @@
       <c r="N192" s="9"/>
       <c r="O192" s="9"/>
       <c r="P192" s="9"/>
-      <c r="Q192" s="63"/>
-      <c r="R192" s="65"/>
+      <c r="Q192" s="50"/>
+      <c r="R192" s="53"/>
     </row>
     <row r="193" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="16"/>
-      <c r="B193" s="63"/>
-      <c r="C193" s="61"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="52"/>
       <c r="D193" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E193" s="26"/>
-      <c r="F193" s="13"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="12"/>
       <c r="G193" s="9"/>
       <c r="H193" s="4"/>
       <c r="I193" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J193" s="7"/>
       <c r="K193" s="4" t="str">
@@ -8130,19 +8112,19 @@
       <c r="N193" s="9"/>
       <c r="O193" s="9"/>
       <c r="P193" s="9"/>
-      <c r="Q193" s="63"/>
-      <c r="R193" s="65"/>
+      <c r="Q193" s="50"/>
+      <c r="R193" s="53"/>
     </row>
     <row r="194" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="16"/>
-      <c r="B194" s="63"/>
-      <c r="C194" s="61"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="52"/>
       <c r="D194" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E194" s="26"/>
-      <c r="F194" s="13"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="12"/>
       <c r="G194" s="9"/>
       <c r="H194" s="4"/>
       <c r="I194" s="7" t="str">
@@ -8165,19 +8147,19 @@
       <c r="N194" s="9"/>
       <c r="O194" s="9"/>
       <c r="P194" s="9"/>
-      <c r="Q194" s="63"/>
-      <c r="R194" s="65"/>
+      <c r="Q194" s="50"/>
+      <c r="R194" s="53"/>
     </row>
     <row r="195" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="16"/>
-      <c r="B195" s="63"/>
-      <c r="C195" s="61"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="50"/>
+      <c r="C195" s="52"/>
       <c r="D195" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E195" s="26"/>
-      <c r="F195" s="13"/>
+      <c r="E195" s="25"/>
+      <c r="F195" s="12"/>
       <c r="G195" s="9"/>
       <c r="H195" s="4"/>
       <c r="I195" s="7" t="str">
@@ -8200,19 +8182,19 @@
       <c r="N195" s="9"/>
       <c r="O195" s="9"/>
       <c r="P195" s="9"/>
-      <c r="Q195" s="63"/>
-      <c r="R195" s="65"/>
+      <c r="Q195" s="50"/>
+      <c r="R195" s="53"/>
     </row>
     <row r="196" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="16"/>
-      <c r="B196" s="63"/>
-      <c r="C196" s="61"/>
+      <c r="A196" s="15"/>
+      <c r="B196" s="50"/>
+      <c r="C196" s="52"/>
       <c r="D196" s="4" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E196" s="26"/>
-      <c r="F196" s="13"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="12"/>
       <c r="G196" s="9"/>
       <c r="H196" s="4"/>
       <c r="I196" s="7" t="str">
@@ -8235,19 +8217,19 @@
       <c r="N196" s="9"/>
       <c r="O196" s="9"/>
       <c r="P196" s="9"/>
-      <c r="Q196" s="63"/>
-      <c r="R196" s="65"/>
+      <c r="Q196" s="50"/>
+      <c r="R196" s="53"/>
     </row>
     <row r="197" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="16"/>
-      <c r="B197" s="63"/>
-      <c r="C197" s="61"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="50"/>
+      <c r="C197" s="52"/>
       <c r="D197" s="4" t="str">
         <f t="shared" ref="D197:D260" si="12">IF(LEN(E197)&gt;5,IF(LEN(K197&amp;L197&amp;M197)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
       </c>
-      <c r="E197" s="26"/>
-      <c r="F197" s="13"/>
+      <c r="E197" s="25"/>
+      <c r="F197" s="12"/>
       <c r="G197" s="9"/>
       <c r="H197" s="4"/>
       <c r="I197" s="7" t="str">
@@ -8270,19 +8252,19 @@
       <c r="N197" s="9"/>
       <c r="O197" s="9"/>
       <c r="P197" s="9"/>
-      <c r="Q197" s="63"/>
-      <c r="R197" s="65"/>
+      <c r="Q197" s="50"/>
+      <c r="R197" s="53"/>
     </row>
     <row r="198" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="16"/>
-      <c r="B198" s="64"/>
-      <c r="C198" s="61"/>
+      <c r="A198" s="15"/>
+      <c r="B198" s="51"/>
+      <c r="C198" s="52"/>
       <c r="D198" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E198" s="26"/>
-      <c r="F198" s="13"/>
+      <c r="E198" s="25"/>
+      <c r="F198" s="12"/>
       <c r="G198" s="9"/>
       <c r="H198" s="4"/>
       <c r="I198" s="7" t="str">
@@ -8305,20 +8287,20 @@
       <c r="N198" s="9"/>
       <c r="O198" s="9"/>
       <c r="P198" s="9"/>
-      <c r="Q198" s="64"/>
-      <c r="R198" s="65"/>
+      <c r="Q198" s="51"/>
+      <c r="R198" s="53"/>
     </row>
     <row r="199" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="16"/>
-      <c r="B199" s="62"/>
-      <c r="C199" s="61"/>
+      <c r="A199" s="15"/>
+      <c r="B199" s="49"/>
+      <c r="C199" s="52"/>
       <c r="D199" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E199" s="28"/>
-      <c r="F199" s="29"/>
-      <c r="G199" s="30"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="29"/>
       <c r="H199" s="4"/>
       <c r="I199" s="7" t="str">
         <f t="shared" si="13"/>
@@ -8340,19 +8322,19 @@
       <c r="N199" s="9"/>
       <c r="O199" s="9"/>
       <c r="P199" s="9"/>
-      <c r="Q199" s="62"/>
-      <c r="R199" s="65"/>
+      <c r="Q199" s="49"/>
+      <c r="R199" s="53"/>
     </row>
     <row r="200" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="16"/>
-      <c r="B200" s="63"/>
-      <c r="C200" s="61"/>
+      <c r="A200" s="15"/>
+      <c r="B200" s="50"/>
+      <c r="C200" s="52"/>
       <c r="D200" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E200" s="21"/>
-      <c r="F200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="19"/>
       <c r="G200" s="9"/>
       <c r="H200" s="4"/>
       <c r="I200" s="7" t="str">
@@ -8375,20 +8357,20 @@
       <c r="N200" s="9"/>
       <c r="O200" s="9"/>
       <c r="P200" s="9"/>
-      <c r="Q200" s="63"/>
-      <c r="R200" s="65"/>
+      <c r="Q200" s="50"/>
+      <c r="R200" s="53"/>
     </row>
     <row r="201" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="16"/>
-      <c r="B201" s="63"/>
-      <c r="C201" s="61"/>
+      <c r="A201" s="15"/>
+      <c r="B201" s="50"/>
+      <c r="C201" s="52"/>
       <c r="D201" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E201" s="28"/>
-      <c r="F201" s="29"/>
-      <c r="G201" s="30"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="29"/>
       <c r="H201" s="4"/>
       <c r="I201" s="7" t="str">
         <f t="shared" si="13"/>
@@ -8410,20 +8392,20 @@
       <c r="N201" s="9"/>
       <c r="O201" s="9"/>
       <c r="P201" s="9"/>
-      <c r="Q201" s="63"/>
-      <c r="R201" s="65"/>
+      <c r="Q201" s="50"/>
+      <c r="R201" s="53"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="16"/>
-      <c r="B202" s="63"/>
-      <c r="C202" s="61"/>
-      <c r="D202" s="31" t="str">
+      <c r="A202" s="15"/>
+      <c r="B202" s="50"/>
+      <c r="C202" s="52"/>
+      <c r="D202" s="30" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E202" s="32"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="30"/>
+      <c r="E202" s="31"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="29"/>
       <c r="H202" s="4"/>
       <c r="I202" s="7" t="str">
         <f t="shared" si="13"/>
@@ -8445,13 +8427,13 @@
       <c r="N202" s="9"/>
       <c r="O202" s="9"/>
       <c r="P202" s="9"/>
-      <c r="Q202" s="63"/>
-      <c r="R202" s="65"/>
+      <c r="Q202" s="50"/>
+      <c r="R202" s="53"/>
     </row>
     <row r="203" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="16"/>
-      <c r="B203" s="63"/>
-      <c r="C203" s="61"/>
+      <c r="A203" s="15"/>
+      <c r="B203" s="50"/>
+      <c r="C203" s="52"/>
       <c r="D203" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8480,13 +8462,13 @@
       <c r="N203" s="9"/>
       <c r="O203" s="9"/>
       <c r="P203" s="9"/>
-      <c r="Q203" s="63"/>
-      <c r="R203" s="65"/>
+      <c r="Q203" s="50"/>
+      <c r="R203" s="53"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="16"/>
-      <c r="B204" s="63"/>
-      <c r="C204" s="61"/>
+      <c r="A204" s="15"/>
+      <c r="B204" s="50"/>
+      <c r="C204" s="52"/>
       <c r="D204" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8515,13 +8497,13 @@
       <c r="N204" s="9"/>
       <c r="O204" s="9"/>
       <c r="P204" s="9"/>
-      <c r="Q204" s="63"/>
-      <c r="R204" s="65"/>
+      <c r="Q204" s="50"/>
+      <c r="R204" s="53"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="16"/>
-      <c r="B205" s="63"/>
-      <c r="C205" s="61"/>
+      <c r="A205" s="15"/>
+      <c r="B205" s="50"/>
+      <c r="C205" s="52"/>
       <c r="D205" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8550,19 +8532,19 @@
       <c r="N205" s="9"/>
       <c r="O205" s="9"/>
       <c r="P205" s="9"/>
-      <c r="Q205" s="63"/>
-      <c r="R205" s="65"/>
+      <c r="Q205" s="50"/>
+      <c r="R205" s="53"/>
     </row>
     <row r="206" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="16"/>
-      <c r="B206" s="63"/>
-      <c r="C206" s="61"/>
+      <c r="A206" s="15"/>
+      <c r="B206" s="50"/>
+      <c r="C206" s="52"/>
       <c r="D206" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E206" s="26"/>
-      <c r="F206" s="13"/>
+      <c r="E206" s="25"/>
+      <c r="F206" s="12"/>
       <c r="G206" s="9"/>
       <c r="H206" s="4"/>
       <c r="I206" s="7" t="str">
@@ -8585,19 +8567,19 @@
       <c r="N206" s="9"/>
       <c r="O206" s="9"/>
       <c r="P206" s="9"/>
-      <c r="Q206" s="63"/>
-      <c r="R206" s="65"/>
+      <c r="Q206" s="50"/>
+      <c r="R206" s="53"/>
     </row>
     <row r="207" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="16"/>
-      <c r="B207" s="63"/>
-      <c r="C207" s="61"/>
+      <c r="A207" s="15"/>
+      <c r="B207" s="50"/>
+      <c r="C207" s="52"/>
       <c r="D207" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E207" s="26"/>
-      <c r="F207" s="13"/>
+      <c r="E207" s="25"/>
+      <c r="F207" s="12"/>
       <c r="G207" s="9"/>
       <c r="H207" s="4"/>
       <c r="I207" s="7" t="str">
@@ -8620,19 +8602,19 @@
       <c r="N207" s="9"/>
       <c r="O207" s="9"/>
       <c r="P207" s="9"/>
-      <c r="Q207" s="63"/>
-      <c r="R207" s="65"/>
+      <c r="Q207" s="50"/>
+      <c r="R207" s="53"/>
     </row>
     <row r="208" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="16"/>
-      <c r="B208" s="63"/>
-      <c r="C208" s="61"/>
+      <c r="A208" s="15"/>
+      <c r="B208" s="50"/>
+      <c r="C208" s="52"/>
       <c r="D208" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E208" s="26"/>
-      <c r="F208" s="13"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="12"/>
       <c r="G208" s="9"/>
       <c r="H208" s="4"/>
       <c r="I208" s="7" t="str">
@@ -8655,19 +8637,19 @@
       <c r="N208" s="9"/>
       <c r="O208" s="9"/>
       <c r="P208" s="9"/>
-      <c r="Q208" s="63"/>
-      <c r="R208" s="65"/>
+      <c r="Q208" s="50"/>
+      <c r="R208" s="53"/>
     </row>
     <row r="209" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="16"/>
-      <c r="B209" s="63"/>
-      <c r="C209" s="61"/>
+      <c r="A209" s="15"/>
+      <c r="B209" s="50"/>
+      <c r="C209" s="52"/>
       <c r="D209" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E209" s="26"/>
-      <c r="F209" s="13"/>
+      <c r="E209" s="25"/>
+      <c r="F209" s="12"/>
       <c r="G209" s="9"/>
       <c r="H209" s="4"/>
       <c r="I209" s="7" t="str">
@@ -8690,19 +8672,19 @@
       <c r="N209" s="9"/>
       <c r="O209" s="9"/>
       <c r="P209" s="9"/>
-      <c r="Q209" s="63"/>
-      <c r="R209" s="65"/>
+      <c r="Q209" s="50"/>
+      <c r="R209" s="53"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="16"/>
-      <c r="B210" s="63"/>
-      <c r="C210" s="61"/>
+      <c r="A210" s="15"/>
+      <c r="B210" s="50"/>
+      <c r="C210" s="52"/>
       <c r="D210" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E210" s="26"/>
-      <c r="F210" s="13"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="12"/>
       <c r="G210" s="9"/>
       <c r="H210" s="4"/>
       <c r="I210" s="7" t="str">
@@ -8725,19 +8707,19 @@
       <c r="N210" s="9"/>
       <c r="O210" s="9"/>
       <c r="P210" s="9"/>
-      <c r="Q210" s="63"/>
-      <c r="R210" s="65"/>
+      <c r="Q210" s="50"/>
+      <c r="R210" s="53"/>
     </row>
     <row r="211" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="16"/>
-      <c r="B211" s="63"/>
-      <c r="C211" s="61"/>
+      <c r="A211" s="15"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="52"/>
       <c r="D211" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E211" s="26"/>
-      <c r="F211" s="13"/>
+      <c r="E211" s="25"/>
+      <c r="F211" s="12"/>
       <c r="G211" s="9"/>
       <c r="H211" s="4"/>
       <c r="I211" s="7" t="str">
@@ -8760,19 +8742,19 @@
       <c r="N211" s="9"/>
       <c r="O211" s="9"/>
       <c r="P211" s="9"/>
-      <c r="Q211" s="63"/>
-      <c r="R211" s="65"/>
+      <c r="Q211" s="50"/>
+      <c r="R211" s="53"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="16"/>
-      <c r="B212" s="63"/>
-      <c r="C212" s="61"/>
+      <c r="A212" s="15"/>
+      <c r="B212" s="50"/>
+      <c r="C212" s="52"/>
       <c r="D212" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E212" s="26"/>
-      <c r="F212" s="13"/>
+      <c r="E212" s="25"/>
+      <c r="F212" s="12"/>
       <c r="G212" s="9"/>
       <c r="H212" s="4"/>
       <c r="I212" s="7" t="str">
@@ -8795,19 +8777,19 @@
       <c r="N212" s="9"/>
       <c r="O212" s="9"/>
       <c r="P212" s="9"/>
-      <c r="Q212" s="63"/>
-      <c r="R212" s="65"/>
+      <c r="Q212" s="50"/>
+      <c r="R212" s="53"/>
     </row>
     <row r="213" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="16"/>
-      <c r="B213" s="64"/>
-      <c r="C213" s="61"/>
+      <c r="A213" s="15"/>
+      <c r="B213" s="51"/>
+      <c r="C213" s="52"/>
       <c r="D213" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E213" s="26"/>
-      <c r="F213" s="13"/>
+      <c r="E213" s="25"/>
+      <c r="F213" s="12"/>
       <c r="G213" s="9"/>
       <c r="H213" s="4"/>
       <c r="I213" s="7" t="str">
@@ -8830,19 +8812,19 @@
       <c r="N213" s="9"/>
       <c r="O213" s="9"/>
       <c r="P213" s="9"/>
-      <c r="Q213" s="64"/>
-      <c r="R213" s="65"/>
+      <c r="Q213" s="51"/>
+      <c r="R213" s="53"/>
     </row>
     <row r="214" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="16"/>
-      <c r="B214" s="62"/>
-      <c r="C214" s="61"/>
+      <c r="A214" s="15"/>
+      <c r="B214" s="49"/>
+      <c r="C214" s="52"/>
       <c r="D214" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E214" s="21"/>
-      <c r="F214" s="34"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="33"/>
       <c r="G214" s="9"/>
       <c r="H214" s="4"/>
       <c r="I214" s="7" t="str">
@@ -8865,19 +8847,19 @@
       <c r="N214" s="9"/>
       <c r="O214" s="9"/>
       <c r="P214" s="9"/>
-      <c r="Q214" s="62"/>
-      <c r="R214" s="65"/>
+      <c r="Q214" s="49"/>
+      <c r="R214" s="53"/>
     </row>
     <row r="215" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="16"/>
-      <c r="B215" s="63"/>
-      <c r="C215" s="61"/>
+      <c r="A215" s="15"/>
+      <c r="B215" s="50"/>
+      <c r="C215" s="52"/>
       <c r="D215" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E215" s="27"/>
-      <c r="F215" s="35"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="34"/>
       <c r="G215" s="9"/>
       <c r="H215" s="4"/>
       <c r="I215" s="7" t="str">
@@ -8900,19 +8882,19 @@
       <c r="N215" s="9"/>
       <c r="O215" s="9"/>
       <c r="P215" s="9"/>
-      <c r="Q215" s="63"/>
-      <c r="R215" s="65"/>
+      <c r="Q215" s="50"/>
+      <c r="R215" s="53"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="16"/>
-      <c r="B216" s="63"/>
-      <c r="C216" s="61"/>
+      <c r="A216" s="15"/>
+      <c r="B216" s="50"/>
+      <c r="C216" s="52"/>
       <c r="D216" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="E216" s="5"/>
-      <c r="F216" s="17"/>
+      <c r="F216" s="16"/>
       <c r="G216" s="9"/>
       <c r="H216" s="4"/>
       <c r="I216" s="7" t="str">
@@ -8935,19 +8917,19 @@
       <c r="N216" s="9"/>
       <c r="O216" s="9"/>
       <c r="P216" s="9"/>
-      <c r="Q216" s="63"/>
-      <c r="R216" s="65"/>
+      <c r="Q216" s="50"/>
+      <c r="R216" s="53"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="16"/>
-      <c r="B217" s="63"/>
-      <c r="C217" s="61"/>
+      <c r="A217" s="15"/>
+      <c r="B217" s="50"/>
+      <c r="C217" s="52"/>
       <c r="D217" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="E217" s="5"/>
-      <c r="F217" s="17"/>
+      <c r="F217" s="16"/>
       <c r="G217" s="9"/>
       <c r="H217" s="4"/>
       <c r="I217" s="7" t="str">
@@ -8970,19 +8952,19 @@
       <c r="N217" s="9"/>
       <c r="O217" s="9"/>
       <c r="P217" s="9"/>
-      <c r="Q217" s="63"/>
-      <c r="R217" s="65"/>
+      <c r="Q217" s="50"/>
+      <c r="R217" s="53"/>
     </row>
     <row r="218" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="16"/>
-      <c r="B218" s="63"/>
-      <c r="C218" s="61"/>
+      <c r="A218" s="15"/>
+      <c r="B218" s="50"/>
+      <c r="C218" s="52"/>
       <c r="D218" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E218" s="36"/>
-      <c r="F218" s="17"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="16"/>
       <c r="G218" s="9"/>
       <c r="H218" s="4"/>
       <c r="I218" s="7" t="str">
@@ -9005,19 +8987,19 @@
       <c r="N218" s="9"/>
       <c r="O218" s="9"/>
       <c r="P218" s="9"/>
-      <c r="Q218" s="63"/>
-      <c r="R218" s="65"/>
+      <c r="Q218" s="50"/>
+      <c r="R218" s="53"/>
     </row>
     <row r="219" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="16"/>
-      <c r="B219" s="63"/>
-      <c r="C219" s="61"/>
+      <c r="A219" s="15"/>
+      <c r="B219" s="50"/>
+      <c r="C219" s="52"/>
       <c r="D219" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="E219" s="8"/>
-      <c r="F219" s="17"/>
+      <c r="F219" s="16"/>
       <c r="G219" s="9"/>
       <c r="H219" s="4"/>
       <c r="I219" s="7" t="str">
@@ -9040,19 +9022,19 @@
       <c r="N219" s="9"/>
       <c r="O219" s="9"/>
       <c r="P219" s="9"/>
-      <c r="Q219" s="63"/>
-      <c r="R219" s="65"/>
+      <c r="Q219" s="50"/>
+      <c r="R219" s="53"/>
     </row>
     <row r="220" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="16"/>
-      <c r="B220" s="63"/>
-      <c r="C220" s="61"/>
+      <c r="A220" s="15"/>
+      <c r="B220" s="50"/>
+      <c r="C220" s="52"/>
       <c r="D220" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E220" s="26"/>
-      <c r="F220" s="13"/>
+      <c r="E220" s="25"/>
+      <c r="F220" s="12"/>
       <c r="G220" s="9"/>
       <c r="H220" s="4"/>
       <c r="I220" s="7" t="str">
@@ -9075,19 +9057,19 @@
       <c r="N220" s="9"/>
       <c r="O220" s="9"/>
       <c r="P220" s="9"/>
-      <c r="Q220" s="63"/>
-      <c r="R220" s="65"/>
+      <c r="Q220" s="50"/>
+      <c r="R220" s="53"/>
     </row>
     <row r="221" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="16"/>
-      <c r="B221" s="63"/>
-      <c r="C221" s="61"/>
+      <c r="A221" s="15"/>
+      <c r="B221" s="50"/>
+      <c r="C221" s="52"/>
       <c r="D221" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E221" s="26"/>
-      <c r="F221" s="13"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="12"/>
       <c r="G221" s="9"/>
       <c r="H221" s="4"/>
       <c r="I221" s="7" t="str">
@@ -9110,19 +9092,19 @@
       <c r="N221" s="9"/>
       <c r="O221" s="9"/>
       <c r="P221" s="9"/>
-      <c r="Q221" s="63"/>
-      <c r="R221" s="65"/>
+      <c r="Q221" s="50"/>
+      <c r="R221" s="53"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="16"/>
-      <c r="B222" s="63"/>
-      <c r="C222" s="61"/>
+      <c r="A222" s="15"/>
+      <c r="B222" s="50"/>
+      <c r="C222" s="52"/>
       <c r="D222" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E222" s="26"/>
-      <c r="F222" s="13"/>
+      <c r="E222" s="25"/>
+      <c r="F222" s="12"/>
       <c r="G222" s="9"/>
       <c r="H222" s="4"/>
       <c r="I222" s="7" t="str">
@@ -9145,19 +9127,19 @@
       <c r="N222" s="9"/>
       <c r="O222" s="9"/>
       <c r="P222" s="9"/>
-      <c r="Q222" s="63"/>
-      <c r="R222" s="65"/>
+      <c r="Q222" s="50"/>
+      <c r="R222" s="53"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="16"/>
-      <c r="B223" s="63"/>
-      <c r="C223" s="61"/>
+      <c r="A223" s="15"/>
+      <c r="B223" s="50"/>
+      <c r="C223" s="52"/>
       <c r="D223" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E223" s="26"/>
-      <c r="F223" s="13"/>
+      <c r="E223" s="25"/>
+      <c r="F223" s="12"/>
       <c r="G223" s="9"/>
       <c r="H223" s="4"/>
       <c r="I223" s="7" t="str">
@@ -9180,19 +9162,19 @@
       <c r="N223" s="9"/>
       <c r="O223" s="9"/>
       <c r="P223" s="9"/>
-      <c r="Q223" s="63"/>
-      <c r="R223" s="65"/>
+      <c r="Q223" s="50"/>
+      <c r="R223" s="53"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="16"/>
-      <c r="B224" s="63"/>
-      <c r="C224" s="61"/>
+      <c r="A224" s="15"/>
+      <c r="B224" s="50"/>
+      <c r="C224" s="52"/>
       <c r="D224" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E224" s="26"/>
-      <c r="F224" s="13"/>
+      <c r="E224" s="25"/>
+      <c r="F224" s="12"/>
       <c r="G224" s="9"/>
       <c r="H224" s="4"/>
       <c r="I224" s="7" t="str">
@@ -9215,19 +9197,19 @@
       <c r="N224" s="9"/>
       <c r="O224" s="9"/>
       <c r="P224" s="9"/>
-      <c r="Q224" s="63"/>
-      <c r="R224" s="65"/>
+      <c r="Q224" s="50"/>
+      <c r="R224" s="53"/>
     </row>
     <row r="225" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="16"/>
-      <c r="B225" s="63"/>
-      <c r="C225" s="61"/>
+      <c r="A225" s="15"/>
+      <c r="B225" s="50"/>
+      <c r="C225" s="52"/>
       <c r="D225" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E225" s="26"/>
-      <c r="F225" s="13"/>
+      <c r="E225" s="25"/>
+      <c r="F225" s="12"/>
       <c r="G225" s="9"/>
       <c r="H225" s="4"/>
       <c r="I225" s="7" t="str">
@@ -9250,19 +9232,19 @@
       <c r="N225" s="9"/>
       <c r="O225" s="9"/>
       <c r="P225" s="9"/>
-      <c r="Q225" s="63"/>
-      <c r="R225" s="65"/>
+      <c r="Q225" s="50"/>
+      <c r="R225" s="53"/>
     </row>
     <row r="226" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="16"/>
-      <c r="B226" s="63"/>
-      <c r="C226" s="61"/>
+      <c r="A226" s="15"/>
+      <c r="B226" s="50"/>
+      <c r="C226" s="52"/>
       <c r="D226" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E226" s="26"/>
-      <c r="F226" s="13"/>
+      <c r="E226" s="25"/>
+      <c r="F226" s="12"/>
       <c r="G226" s="9"/>
       <c r="H226" s="4"/>
       <c r="I226" s="7" t="str">
@@ -9285,19 +9267,19 @@
       <c r="N226" s="9"/>
       <c r="O226" s="9"/>
       <c r="P226" s="9"/>
-      <c r="Q226" s="63"/>
-      <c r="R226" s="65"/>
+      <c r="Q226" s="50"/>
+      <c r="R226" s="53"/>
     </row>
     <row r="227" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="16"/>
-      <c r="B227" s="63"/>
-      <c r="C227" s="61"/>
+      <c r="A227" s="15"/>
+      <c r="B227" s="50"/>
+      <c r="C227" s="52"/>
       <c r="D227" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E227" s="26"/>
-      <c r="F227" s="13"/>
+      <c r="E227" s="25"/>
+      <c r="F227" s="12"/>
       <c r="G227" s="9"/>
       <c r="H227" s="4"/>
       <c r="I227" s="7" t="str">
@@ -9320,19 +9302,19 @@
       <c r="N227" s="9"/>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
-      <c r="Q227" s="63"/>
-      <c r="R227" s="65"/>
+      <c r="Q227" s="50"/>
+      <c r="R227" s="53"/>
     </row>
     <row r="228" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="16"/>
-      <c r="B228" s="64"/>
-      <c r="C228" s="61"/>
+      <c r="A228" s="15"/>
+      <c r="B228" s="51"/>
+      <c r="C228" s="52"/>
       <c r="D228" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E228" s="26"/>
-      <c r="F228" s="13"/>
+      <c r="E228" s="25"/>
+      <c r="F228" s="12"/>
       <c r="G228" s="9"/>
       <c r="H228" s="4"/>
       <c r="I228" s="7" t="str">
@@ -9355,19 +9337,19 @@
       <c r="N228" s="9"/>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
-      <c r="Q228" s="64"/>
-      <c r="R228" s="65"/>
+      <c r="Q228" s="51"/>
+      <c r="R228" s="53"/>
     </row>
     <row r="229" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="16"/>
-      <c r="B229" s="62"/>
-      <c r="C229" s="61"/>
+      <c r="A229" s="15"/>
+      <c r="B229" s="49"/>
+      <c r="C229" s="52"/>
       <c r="D229" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E229" s="19"/>
-      <c r="F229" s="37"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="36"/>
       <c r="G229" s="9"/>
       <c r="H229" s="4"/>
       <c r="I229" s="7" t="str">
@@ -9389,20 +9371,20 @@
       </c>
       <c r="N229" s="9"/>
       <c r="O229" s="9"/>
-      <c r="P229" s="37"/>
-      <c r="Q229" s="62"/>
-      <c r="R229" s="65"/>
+      <c r="P229" s="36"/>
+      <c r="Q229" s="49"/>
+      <c r="R229" s="53"/>
     </row>
     <row r="230" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="16"/>
-      <c r="B230" s="63"/>
-      <c r="C230" s="61"/>
+      <c r="A230" s="15"/>
+      <c r="B230" s="50"/>
+      <c r="C230" s="52"/>
       <c r="D230" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E230" s="38"/>
-      <c r="F230" s="35"/>
+      <c r="E230" s="37"/>
+      <c r="F230" s="34"/>
       <c r="G230" s="9"/>
       <c r="H230" s="4"/>
       <c r="I230" s="7" t="str">
@@ -9424,20 +9406,20 @@
       </c>
       <c r="N230" s="9"/>
       <c r="O230" s="9"/>
-      <c r="P230" s="37"/>
-      <c r="Q230" s="63"/>
-      <c r="R230" s="65"/>
+      <c r="P230" s="36"/>
+      <c r="Q230" s="50"/>
+      <c r="R230" s="53"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="16"/>
-      <c r="B231" s="63"/>
-      <c r="C231" s="61"/>
+      <c r="A231" s="15"/>
+      <c r="B231" s="50"/>
+      <c r="C231" s="52"/>
       <c r="D231" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="E231" s="8"/>
-      <c r="F231" s="24"/>
+      <c r="F231" s="23"/>
       <c r="G231" s="9"/>
       <c r="H231" s="4"/>
       <c r="I231" s="7" t="str">
@@ -9460,19 +9442,19 @@
       <c r="N231" s="9"/>
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
-      <c r="Q231" s="63"/>
-      <c r="R231" s="65"/>
+      <c r="Q231" s="50"/>
+      <c r="R231" s="53"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="16"/>
-      <c r="B232" s="63"/>
-      <c r="C232" s="61"/>
+      <c r="A232" s="15"/>
+      <c r="B232" s="50"/>
+      <c r="C232" s="52"/>
       <c r="D232" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="E232" s="5"/>
-      <c r="F232" s="24"/>
+      <c r="F232" s="23"/>
       <c r="G232" s="9"/>
       <c r="H232" s="4"/>
       <c r="I232" s="7" t="str">
@@ -9495,19 +9477,19 @@
       <c r="N232" s="9"/>
       <c r="O232" s="9"/>
       <c r="P232" s="9"/>
-      <c r="Q232" s="63"/>
-      <c r="R232" s="65"/>
+      <c r="Q232" s="50"/>
+      <c r="R232" s="53"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="16"/>
-      <c r="B233" s="63"/>
-      <c r="C233" s="61"/>
+      <c r="A233" s="15"/>
+      <c r="B233" s="50"/>
+      <c r="C233" s="52"/>
       <c r="D233" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E233" s="36"/>
-      <c r="F233" s="24"/>
+      <c r="E233" s="35"/>
+      <c r="F233" s="23"/>
       <c r="G233" s="9"/>
       <c r="H233" s="4"/>
       <c r="I233" s="7" t="str">
@@ -9530,19 +9512,19 @@
       <c r="N233" s="9"/>
       <c r="O233" s="9"/>
       <c r="P233" s="9"/>
-      <c r="Q233" s="63"/>
-      <c r="R233" s="65"/>
+      <c r="Q233" s="50"/>
+      <c r="R233" s="53"/>
     </row>
     <row r="234" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="16"/>
-      <c r="B234" s="63"/>
-      <c r="C234" s="61"/>
+      <c r="A234" s="15"/>
+      <c r="B234" s="50"/>
+      <c r="C234" s="52"/>
       <c r="D234" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E234" s="39"/>
-      <c r="F234" s="40"/>
+      <c r="E234" s="38"/>
+      <c r="F234" s="39"/>
       <c r="G234" s="9"/>
       <c r="H234" s="4"/>
       <c r="I234" s="7" t="str">
@@ -9565,19 +9547,19 @@
       <c r="N234" s="9"/>
       <c r="O234" s="9"/>
       <c r="P234" s="9"/>
-      <c r="Q234" s="63"/>
-      <c r="R234" s="65"/>
+      <c r="Q234" s="50"/>
+      <c r="R234" s="53"/>
     </row>
     <row r="235" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="16"/>
-      <c r="B235" s="63"/>
-      <c r="C235" s="61"/>
+      <c r="A235" s="15"/>
+      <c r="B235" s="50"/>
+      <c r="C235" s="52"/>
       <c r="D235" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E235" s="39"/>
-      <c r="F235" s="33"/>
+      <c r="E235" s="38"/>
+      <c r="F235" s="32"/>
       <c r="G235" s="9"/>
       <c r="H235" s="4"/>
       <c r="I235" s="7" t="str">
@@ -9600,19 +9582,19 @@
       <c r="N235" s="9"/>
       <c r="O235" s="9"/>
       <c r="P235" s="9"/>
-      <c r="Q235" s="63"/>
-      <c r="R235" s="65"/>
+      <c r="Q235" s="50"/>
+      <c r="R235" s="53"/>
     </row>
     <row r="236" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="16"/>
-      <c r="B236" s="63"/>
-      <c r="C236" s="61"/>
+      <c r="A236" s="15"/>
+      <c r="B236" s="50"/>
+      <c r="C236" s="52"/>
       <c r="D236" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E236" s="26"/>
-      <c r="F236" s="13"/>
+      <c r="E236" s="25"/>
+      <c r="F236" s="12"/>
       <c r="G236" s="9"/>
       <c r="H236" s="4"/>
       <c r="I236" s="7" t="str">
@@ -9635,19 +9617,19 @@
       <c r="N236" s="9"/>
       <c r="O236" s="9"/>
       <c r="P236" s="9"/>
-      <c r="Q236" s="63"/>
-      <c r="R236" s="65"/>
+      <c r="Q236" s="50"/>
+      <c r="R236" s="53"/>
     </row>
     <row r="237" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="16"/>
-      <c r="B237" s="63"/>
-      <c r="C237" s="61"/>
+      <c r="A237" s="15"/>
+      <c r="B237" s="50"/>
+      <c r="C237" s="52"/>
       <c r="D237" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E237" s="26"/>
-      <c r="F237" s="13"/>
+      <c r="E237" s="25"/>
+      <c r="F237" s="12"/>
       <c r="G237" s="9"/>
       <c r="H237" s="4"/>
       <c r="I237" s="7" t="str">
@@ -9670,19 +9652,19 @@
       <c r="N237" s="9"/>
       <c r="O237" s="9"/>
       <c r="P237" s="9"/>
-      <c r="Q237" s="63"/>
-      <c r="R237" s="65"/>
+      <c r="Q237" s="50"/>
+      <c r="R237" s="53"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="16"/>
-      <c r="B238" s="63"/>
-      <c r="C238" s="61"/>
+      <c r="A238" s="15"/>
+      <c r="B238" s="50"/>
+      <c r="C238" s="52"/>
       <c r="D238" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E238" s="26"/>
-      <c r="F238" s="13"/>
+      <c r="E238" s="25"/>
+      <c r="F238" s="12"/>
       <c r="G238" s="9"/>
       <c r="H238" s="4"/>
       <c r="I238" s="7" t="str">
@@ -9705,19 +9687,19 @@
       <c r="N238" s="9"/>
       <c r="O238" s="9"/>
       <c r="P238" s="9"/>
-      <c r="Q238" s="63"/>
-      <c r="R238" s="65"/>
+      <c r="Q238" s="50"/>
+      <c r="R238" s="53"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="16"/>
-      <c r="B239" s="63"/>
-      <c r="C239" s="61"/>
+      <c r="A239" s="15"/>
+      <c r="B239" s="50"/>
+      <c r="C239" s="52"/>
       <c r="D239" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E239" s="26"/>
-      <c r="F239" s="13"/>
+      <c r="E239" s="25"/>
+      <c r="F239" s="12"/>
       <c r="G239" s="9"/>
       <c r="H239" s="4"/>
       <c r="I239" s="7" t="str">
@@ -9740,19 +9722,19 @@
       <c r="N239" s="9"/>
       <c r="O239" s="9"/>
       <c r="P239" s="9"/>
-      <c r="Q239" s="63"/>
-      <c r="R239" s="65"/>
+      <c r="Q239" s="50"/>
+      <c r="R239" s="53"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="16"/>
-      <c r="B240" s="63"/>
-      <c r="C240" s="61"/>
+      <c r="A240" s="15"/>
+      <c r="B240" s="50"/>
+      <c r="C240" s="52"/>
       <c r="D240" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E240" s="26"/>
-      <c r="F240" s="13"/>
+      <c r="E240" s="25"/>
+      <c r="F240" s="12"/>
       <c r="G240" s="9"/>
       <c r="H240" s="4"/>
       <c r="I240" s="7" t="str">
@@ -9775,19 +9757,19 @@
       <c r="N240" s="9"/>
       <c r="O240" s="9"/>
       <c r="P240" s="9"/>
-      <c r="Q240" s="63"/>
-      <c r="R240" s="65"/>
+      <c r="Q240" s="50"/>
+      <c r="R240" s="53"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="16"/>
-      <c r="B241" s="63"/>
-      <c r="C241" s="61"/>
+      <c r="A241" s="15"/>
+      <c r="B241" s="50"/>
+      <c r="C241" s="52"/>
       <c r="D241" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E241" s="26"/>
-      <c r="F241" s="13"/>
+      <c r="E241" s="25"/>
+      <c r="F241" s="12"/>
       <c r="G241" s="9"/>
       <c r="H241" s="4"/>
       <c r="I241" s="7" t="str">
@@ -9810,19 +9792,19 @@
       <c r="N241" s="9"/>
       <c r="O241" s="9"/>
       <c r="P241" s="9"/>
-      <c r="Q241" s="63"/>
-      <c r="R241" s="65"/>
+      <c r="Q241" s="50"/>
+      <c r="R241" s="53"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="16"/>
-      <c r="B242" s="63"/>
-      <c r="C242" s="61"/>
+      <c r="A242" s="15"/>
+      <c r="B242" s="50"/>
+      <c r="C242" s="52"/>
       <c r="D242" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E242" s="26"/>
-      <c r="F242" s="13"/>
+      <c r="E242" s="25"/>
+      <c r="F242" s="12"/>
       <c r="G242" s="9"/>
       <c r="H242" s="4"/>
       <c r="I242" s="7" t="str">
@@ -9845,19 +9827,19 @@
       <c r="N242" s="9"/>
       <c r="O242" s="9"/>
       <c r="P242" s="9"/>
-      <c r="Q242" s="63"/>
-      <c r="R242" s="65"/>
+      <c r="Q242" s="50"/>
+      <c r="R242" s="53"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="16"/>
-      <c r="B243" s="64"/>
-      <c r="C243" s="61"/>
+      <c r="A243" s="15"/>
+      <c r="B243" s="51"/>
+      <c r="C243" s="52"/>
       <c r="D243" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E243" s="26"/>
-      <c r="F243" s="13"/>
+      <c r="E243" s="25"/>
+      <c r="F243" s="12"/>
       <c r="G243" s="9"/>
       <c r="H243" s="4"/>
       <c r="I243" s="7" t="str">
@@ -9880,19 +9862,19 @@
       <c r="N243" s="9"/>
       <c r="O243" s="9"/>
       <c r="P243" s="9"/>
-      <c r="Q243" s="64"/>
-      <c r="R243" s="65"/>
+      <c r="Q243" s="51"/>
+      <c r="R243" s="53"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="16"/>
-      <c r="B244" s="62"/>
-      <c r="C244" s="61"/>
+      <c r="A244" s="15"/>
+      <c r="B244" s="49"/>
+      <c r="C244" s="52"/>
       <c r="D244" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E244" s="19"/>
-      <c r="F244" s="41"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="40"/>
       <c r="G244" s="9"/>
       <c r="H244" s="4"/>
       <c r="I244" s="7" t="str">
@@ -9915,19 +9897,19 @@
       <c r="N244" s="9"/>
       <c r="O244" s="9"/>
       <c r="P244" s="9"/>
-      <c r="Q244" s="62"/>
-      <c r="R244" s="65"/>
+      <c r="Q244" s="49"/>
+      <c r="R244" s="53"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="16"/>
-      <c r="B245" s="63"/>
-      <c r="C245" s="61"/>
+      <c r="A245" s="15"/>
+      <c r="B245" s="50"/>
+      <c r="C245" s="52"/>
       <c r="D245" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="E245" s="8"/>
-      <c r="F245" s="41"/>
+      <c r="F245" s="40"/>
       <c r="G245" s="9"/>
       <c r="H245" s="4"/>
       <c r="I245" s="7" t="str">
@@ -9950,19 +9932,19 @@
       <c r="N245" s="9"/>
       <c r="O245" s="9"/>
       <c r="P245" s="9"/>
-      <c r="Q245" s="63"/>
-      <c r="R245" s="65"/>
+      <c r="Q245" s="50"/>
+      <c r="R245" s="53"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="16"/>
-      <c r="B246" s="63"/>
-      <c r="C246" s="61"/>
+      <c r="A246" s="15"/>
+      <c r="B246" s="50"/>
+      <c r="C246" s="52"/>
       <c r="D246" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E246" s="36"/>
-      <c r="F246" s="41"/>
+      <c r="E246" s="35"/>
+      <c r="F246" s="40"/>
       <c r="G246" s="9"/>
       <c r="H246" s="4"/>
       <c r="I246" s="7" t="str">
@@ -9985,19 +9967,19 @@
       <c r="N246" s="9"/>
       <c r="O246" s="9"/>
       <c r="P246" s="9"/>
-      <c r="Q246" s="63"/>
-      <c r="R246" s="65"/>
+      <c r="Q246" s="50"/>
+      <c r="R246" s="53"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="16"/>
-      <c r="B247" s="63"/>
-      <c r="C247" s="61"/>
+      <c r="A247" s="15"/>
+      <c r="B247" s="50"/>
+      <c r="C247" s="52"/>
       <c r="D247" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E247" s="26"/>
-      <c r="F247" s="23"/>
+      <c r="E247" s="25"/>
+      <c r="F247" s="22"/>
       <c r="G247" s="9"/>
       <c r="H247" s="4"/>
       <c r="I247" s="7" t="str">
@@ -10020,19 +10002,19 @@
       <c r="N247" s="9"/>
       <c r="O247" s="9"/>
       <c r="P247" s="9"/>
-      <c r="Q247" s="63"/>
-      <c r="R247" s="65"/>
+      <c r="Q247" s="50"/>
+      <c r="R247" s="53"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="16"/>
-      <c r="B248" s="63"/>
-      <c r="C248" s="61"/>
+      <c r="A248" s="15"/>
+      <c r="B248" s="50"/>
+      <c r="C248" s="52"/>
       <c r="D248" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E248" s="26"/>
-      <c r="F248" s="23"/>
+      <c r="E248" s="25"/>
+      <c r="F248" s="22"/>
       <c r="G248" s="9"/>
       <c r="H248" s="4"/>
       <c r="I248" s="7" t="str">
@@ -10055,19 +10037,19 @@
       <c r="N248" s="9"/>
       <c r="O248" s="9"/>
       <c r="P248" s="9"/>
-      <c r="Q248" s="63"/>
-      <c r="R248" s="65"/>
+      <c r="Q248" s="50"/>
+      <c r="R248" s="53"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="16"/>
-      <c r="B249" s="63"/>
-      <c r="C249" s="61"/>
+      <c r="A249" s="15"/>
+      <c r="B249" s="50"/>
+      <c r="C249" s="52"/>
       <c r="D249" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E249" s="26"/>
-      <c r="F249" s="23"/>
+      <c r="E249" s="25"/>
+      <c r="F249" s="22"/>
       <c r="G249" s="9"/>
       <c r="H249" s="4"/>
       <c r="I249" s="7" t="str">
@@ -10090,19 +10072,19 @@
       <c r="N249" s="9"/>
       <c r="O249" s="9"/>
       <c r="P249" s="9"/>
-      <c r="Q249" s="63"/>
-      <c r="R249" s="65"/>
+      <c r="Q249" s="50"/>
+      <c r="R249" s="53"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="16"/>
-      <c r="B250" s="63"/>
-      <c r="C250" s="61"/>
+      <c r="A250" s="15"/>
+      <c r="B250" s="50"/>
+      <c r="C250" s="52"/>
       <c r="D250" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E250" s="26"/>
-      <c r="F250" s="23"/>
+      <c r="E250" s="25"/>
+      <c r="F250" s="22"/>
       <c r="G250" s="9"/>
       <c r="H250" s="4"/>
       <c r="I250" s="7" t="str">
@@ -10125,19 +10107,19 @@
       <c r="N250" s="9"/>
       <c r="O250" s="9"/>
       <c r="P250" s="9"/>
-      <c r="Q250" s="63"/>
-      <c r="R250" s="65"/>
+      <c r="Q250" s="50"/>
+      <c r="R250" s="53"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="16"/>
-      <c r="B251" s="63"/>
-      <c r="C251" s="61"/>
+      <c r="A251" s="15"/>
+      <c r="B251" s="50"/>
+      <c r="C251" s="52"/>
       <c r="D251" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E251" s="26"/>
-      <c r="F251" s="23"/>
+      <c r="E251" s="25"/>
+      <c r="F251" s="22"/>
       <c r="G251" s="9"/>
       <c r="H251" s="4"/>
       <c r="I251" s="7" t="str">
@@ -10160,19 +10142,19 @@
       <c r="N251" s="9"/>
       <c r="O251" s="9"/>
       <c r="P251" s="9"/>
-      <c r="Q251" s="63"/>
-      <c r="R251" s="65"/>
+      <c r="Q251" s="50"/>
+      <c r="R251" s="53"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="16"/>
-      <c r="B252" s="63"/>
-      <c r="C252" s="61"/>
+      <c r="A252" s="15"/>
+      <c r="B252" s="50"/>
+      <c r="C252" s="52"/>
       <c r="D252" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E252" s="26"/>
-      <c r="F252" s="23"/>
+      <c r="E252" s="25"/>
+      <c r="F252" s="22"/>
       <c r="G252" s="9"/>
       <c r="H252" s="4"/>
       <c r="I252" s="7" t="str">
@@ -10195,19 +10177,19 @@
       <c r="N252" s="9"/>
       <c r="O252" s="9"/>
       <c r="P252" s="9"/>
-      <c r="Q252" s="63"/>
-      <c r="R252" s="65"/>
+      <c r="Q252" s="50"/>
+      <c r="R252" s="53"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="16"/>
-      <c r="B253" s="63"/>
-      <c r="C253" s="61"/>
+      <c r="A253" s="15"/>
+      <c r="B253" s="50"/>
+      <c r="C253" s="52"/>
       <c r="D253" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E253" s="26"/>
-      <c r="F253" s="23"/>
+      <c r="E253" s="25"/>
+      <c r="F253" s="22"/>
       <c r="G253" s="9"/>
       <c r="H253" s="4"/>
       <c r="I253" s="7" t="str">
@@ -10230,19 +10212,19 @@
       <c r="N253" s="9"/>
       <c r="O253" s="9"/>
       <c r="P253" s="9"/>
-      <c r="Q253" s="63"/>
-      <c r="R253" s="65"/>
+      <c r="Q253" s="50"/>
+      <c r="R253" s="53"/>
     </row>
     <row r="254" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="16"/>
-      <c r="B254" s="63"/>
-      <c r="C254" s="61"/>
+      <c r="A254" s="15"/>
+      <c r="B254" s="50"/>
+      <c r="C254" s="52"/>
       <c r="D254" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E254" s="26"/>
-      <c r="F254" s="23"/>
+      <c r="E254" s="25"/>
+      <c r="F254" s="22"/>
       <c r="G254" s="9"/>
       <c r="H254" s="4"/>
       <c r="I254" s="7" t="str">
@@ -10265,19 +10247,19 @@
       <c r="N254" s="9"/>
       <c r="O254" s="9"/>
       <c r="P254" s="9"/>
-      <c r="Q254" s="63"/>
-      <c r="R254" s="65"/>
+      <c r="Q254" s="50"/>
+      <c r="R254" s="53"/>
     </row>
     <row r="255" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="16"/>
-      <c r="B255" s="63"/>
-      <c r="C255" s="61"/>
+      <c r="A255" s="15"/>
+      <c r="B255" s="50"/>
+      <c r="C255" s="52"/>
       <c r="D255" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E255" s="26"/>
-      <c r="F255" s="23"/>
+      <c r="E255" s="25"/>
+      <c r="F255" s="22"/>
       <c r="G255" s="9"/>
       <c r="H255" s="4"/>
       <c r="I255" s="7" t="str">
@@ -10300,19 +10282,19 @@
       <c r="N255" s="9"/>
       <c r="O255" s="9"/>
       <c r="P255" s="9"/>
-      <c r="Q255" s="63"/>
-      <c r="R255" s="65"/>
+      <c r="Q255" s="50"/>
+      <c r="R255" s="53"/>
     </row>
     <row r="256" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="16"/>
-      <c r="B256" s="63"/>
-      <c r="C256" s="61"/>
+      <c r="A256" s="15"/>
+      <c r="B256" s="50"/>
+      <c r="C256" s="52"/>
       <c r="D256" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E256" s="26"/>
-      <c r="F256" s="23"/>
+      <c r="E256" s="25"/>
+      <c r="F256" s="22"/>
       <c r="G256" s="9"/>
       <c r="H256" s="4"/>
       <c r="I256" s="7" t="str">
@@ -10335,19 +10317,19 @@
       <c r="N256" s="9"/>
       <c r="O256" s="9"/>
       <c r="P256" s="9"/>
-      <c r="Q256" s="63"/>
-      <c r="R256" s="65"/>
+      <c r="Q256" s="50"/>
+      <c r="R256" s="53"/>
     </row>
     <row r="257" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="16"/>
-      <c r="B257" s="63"/>
-      <c r="C257" s="61"/>
+      <c r="A257" s="15"/>
+      <c r="B257" s="50"/>
+      <c r="C257" s="52"/>
       <c r="D257" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E257" s="26"/>
-      <c r="F257" s="23"/>
+      <c r="E257" s="25"/>
+      <c r="F257" s="22"/>
       <c r="G257" s="9"/>
       <c r="H257" s="4"/>
       <c r="I257" s="7" t="str">
@@ -10370,26 +10352,26 @@
       <c r="N257" s="9"/>
       <c r="O257" s="9"/>
       <c r="P257" s="9"/>
-      <c r="Q257" s="63"/>
-      <c r="R257" s="65"/>
+      <c r="Q257" s="50"/>
+      <c r="R257" s="53"/>
     </row>
     <row r="258" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="16"/>
-      <c r="B258" s="64"/>
-      <c r="C258" s="61"/>
+      <c r="A258" s="15"/>
+      <c r="B258" s="51"/>
+      <c r="C258" s="52"/>
       <c r="D258" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E258" s="26"/>
-      <c r="F258" s="23"/>
-      <c r="G258" s="42"/>
-      <c r="H258" s="43"/>
-      <c r="I258" s="44" t="str">
+      <c r="E258" s="25"/>
+      <c r="F258" s="22"/>
+      <c r="G258" s="41"/>
+      <c r="H258" s="42"/>
+      <c r="I258" s="43" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
-      <c r="J258" s="44"/>
+      <c r="J258" s="43"/>
       <c r="K258" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10402,29 +10384,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N258" s="42"/>
-      <c r="O258" s="42"/>
-      <c r="P258" s="42"/>
-      <c r="Q258" s="64"/>
-      <c r="R258" s="65"/>
+      <c r="N258" s="41"/>
+      <c r="O258" s="41"/>
+      <c r="P258" s="41"/>
+      <c r="Q258" s="51"/>
+      <c r="R258" s="53"/>
     </row>
     <row r="259" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="16"/>
-      <c r="B259" s="62"/>
-      <c r="C259" s="61"/>
+      <c r="A259" s="15"/>
+      <c r="B259" s="49"/>
+      <c r="C259" s="52"/>
       <c r="D259" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E259" s="15"/>
-      <c r="F259" s="45"/>
+      <c r="E259" s="14"/>
+      <c r="F259" s="44"/>
       <c r="G259" s="9"/>
-      <c r="H259" s="43"/>
-      <c r="I259" s="44" t="str">
+      <c r="H259" s="42"/>
+      <c r="I259" s="43" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
-      <c r="J259" s="44"/>
+      <c r="J259" s="43"/>
       <c r="K259" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10437,29 +10419,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N259" s="42"/>
-      <c r="O259" s="42"/>
-      <c r="P259" s="42"/>
-      <c r="Q259" s="62"/>
-      <c r="R259" s="65"/>
+      <c r="N259" s="41"/>
+      <c r="O259" s="41"/>
+      <c r="P259" s="41"/>
+      <c r="Q259" s="49"/>
+      <c r="R259" s="53"/>
     </row>
     <row r="260" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="16"/>
-      <c r="B260" s="63"/>
-      <c r="C260" s="61"/>
+      <c r="A260" s="15"/>
+      <c r="B260" s="50"/>
+      <c r="C260" s="52"/>
       <c r="D260" s="4" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E260" s="15"/>
-      <c r="F260" s="45"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="44"/>
       <c r="G260" s="9"/>
-      <c r="H260" s="43"/>
-      <c r="I260" s="44" t="str">
+      <c r="H260" s="42"/>
+      <c r="I260" s="43" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
-      <c r="J260" s="44"/>
+      <c r="J260" s="43"/>
       <c r="K260" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10472,29 +10454,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N260" s="42"/>
-      <c r="O260" s="42"/>
-      <c r="P260" s="42"/>
-      <c r="Q260" s="63"/>
-      <c r="R260" s="65"/>
+      <c r="N260" s="41"/>
+      <c r="O260" s="41"/>
+      <c r="P260" s="41"/>
+      <c r="Q260" s="50"/>
+      <c r="R260" s="53"/>
     </row>
     <row r="261" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="16"/>
-      <c r="B261" s="63"/>
-      <c r="C261" s="61"/>
+      <c r="A261" s="15"/>
+      <c r="B261" s="50"/>
+      <c r="C261" s="52"/>
       <c r="D261" s="4" t="str">
         <f t="shared" ref="D261:D273" si="16">IF(LEN(E261)&gt;5,IF(LEN(K261&amp;L261&amp;M261)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
       </c>
-      <c r="E261" s="15"/>
-      <c r="F261" s="45"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="44"/>
       <c r="G261" s="9"/>
-      <c r="H261" s="43"/>
-      <c r="I261" s="44" t="str">
+      <c r="H261" s="42"/>
+      <c r="I261" s="43" t="str">
         <f t="shared" ref="I261:I273" si="17">IF(MID(H261,2,1)=":",LEFT(H261,1),"-")</f>
         <v>-</v>
       </c>
-      <c r="J261" s="44"/>
+      <c r="J261" s="43"/>
       <c r="K261" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10507,29 +10489,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N261" s="42"/>
-      <c r="O261" s="42"/>
-      <c r="P261" s="42"/>
-      <c r="Q261" s="63"/>
-      <c r="R261" s="65"/>
+      <c r="N261" s="41"/>
+      <c r="O261" s="41"/>
+      <c r="P261" s="41"/>
+      <c r="Q261" s="50"/>
+      <c r="R261" s="53"/>
     </row>
     <row r="262" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="16"/>
-      <c r="B262" s="63"/>
-      <c r="C262" s="61"/>
+      <c r="A262" s="15"/>
+      <c r="B262" s="50"/>
+      <c r="C262" s="52"/>
       <c r="D262" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E262" s="15"/>
-      <c r="F262" s="45"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="44"/>
       <c r="G262" s="9"/>
-      <c r="H262" s="43"/>
-      <c r="I262" s="44" t="str">
+      <c r="H262" s="42"/>
+      <c r="I262" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J262" s="44"/>
+      <c r="J262" s="43"/>
       <c r="K262" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10542,29 +10524,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N262" s="42"/>
-      <c r="O262" s="42"/>
-      <c r="P262" s="42"/>
-      <c r="Q262" s="63"/>
-      <c r="R262" s="65"/>
+      <c r="N262" s="41"/>
+      <c r="O262" s="41"/>
+      <c r="P262" s="41"/>
+      <c r="Q262" s="50"/>
+      <c r="R262" s="53"/>
     </row>
     <row r="263" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="16"/>
-      <c r="B263" s="63"/>
-      <c r="C263" s="61"/>
+      <c r="A263" s="15"/>
+      <c r="B263" s="50"/>
+      <c r="C263" s="52"/>
       <c r="D263" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E263" s="36"/>
-      <c r="F263" s="24"/>
+      <c r="E263" s="35"/>
+      <c r="F263" s="23"/>
       <c r="G263" s="9"/>
-      <c r="H263" s="43"/>
-      <c r="I263" s="44" t="str">
+      <c r="H263" s="42"/>
+      <c r="I263" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J263" s="44"/>
+      <c r="J263" s="43"/>
       <c r="K263" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10577,29 +10559,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N263" s="42"/>
-      <c r="O263" s="42"/>
-      <c r="P263" s="42"/>
-      <c r="Q263" s="63"/>
-      <c r="R263" s="65"/>
+      <c r="N263" s="41"/>
+      <c r="O263" s="41"/>
+      <c r="P263" s="41"/>
+      <c r="Q263" s="50"/>
+      <c r="R263" s="53"/>
     </row>
     <row r="264" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="16"/>
-      <c r="B264" s="63"/>
-      <c r="C264" s="61"/>
+      <c r="A264" s="15"/>
+      <c r="B264" s="50"/>
+      <c r="C264" s="52"/>
       <c r="D264" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E264" s="21"/>
-      <c r="F264" s="24"/>
+      <c r="E264" s="20"/>
+      <c r="F264" s="23"/>
       <c r="G264" s="9"/>
-      <c r="H264" s="43"/>
-      <c r="I264" s="44" t="str">
+      <c r="H264" s="42"/>
+      <c r="I264" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J264" s="44"/>
+      <c r="J264" s="43"/>
       <c r="K264" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10612,29 +10594,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N264" s="42"/>
-      <c r="O264" s="42"/>
-      <c r="P264" s="42"/>
-      <c r="Q264" s="63"/>
-      <c r="R264" s="65"/>
+      <c r="N264" s="41"/>
+      <c r="O264" s="41"/>
+      <c r="P264" s="41"/>
+      <c r="Q264" s="50"/>
+      <c r="R264" s="53"/>
     </row>
     <row r="265" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="16"/>
-      <c r="B265" s="63"/>
-      <c r="C265" s="61"/>
+      <c r="A265" s="15"/>
+      <c r="B265" s="50"/>
+      <c r="C265" s="52"/>
       <c r="D265" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E265" s="36"/>
-      <c r="F265" s="24"/>
+      <c r="E265" s="35"/>
+      <c r="F265" s="23"/>
       <c r="G265" s="9"/>
-      <c r="H265" s="43"/>
-      <c r="I265" s="44" t="str">
+      <c r="H265" s="42"/>
+      <c r="I265" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J265" s="44"/>
+      <c r="J265" s="43"/>
       <c r="K265" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10647,29 +10629,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N265" s="42"/>
-      <c r="O265" s="42"/>
-      <c r="P265" s="42"/>
-      <c r="Q265" s="63"/>
-      <c r="R265" s="65"/>
+      <c r="N265" s="41"/>
+      <c r="O265" s="41"/>
+      <c r="P265" s="41"/>
+      <c r="Q265" s="50"/>
+      <c r="R265" s="53"/>
     </row>
     <row r="266" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="16"/>
-      <c r="B266" s="63"/>
-      <c r="C266" s="61"/>
+      <c r="A266" s="15"/>
+      <c r="B266" s="50"/>
+      <c r="C266" s="52"/>
       <c r="D266" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E266" s="36"/>
-      <c r="F266" s="24"/>
+      <c r="E266" s="35"/>
+      <c r="F266" s="23"/>
       <c r="G266" s="9"/>
-      <c r="H266" s="43"/>
-      <c r="I266" s="44" t="str">
+      <c r="H266" s="42"/>
+      <c r="I266" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J266" s="44"/>
+      <c r="J266" s="43"/>
       <c r="K266" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10682,28 +10664,28 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N266" s="42"/>
-      <c r="P266" s="42"/>
-      <c r="Q266" s="63"/>
-      <c r="R266" s="65"/>
+      <c r="N266" s="41"/>
+      <c r="P266" s="41"/>
+      <c r="Q266" s="50"/>
+      <c r="R266" s="53"/>
     </row>
     <row r="267" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="16"/>
-      <c r="B267" s="63"/>
-      <c r="C267" s="61"/>
+      <c r="A267" s="15"/>
+      <c r="B267" s="50"/>
+      <c r="C267" s="52"/>
       <c r="D267" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E267" s="36"/>
-      <c r="F267" s="23"/>
+      <c r="E267" s="35"/>
+      <c r="F267" s="22"/>
       <c r="G267" s="9"/>
-      <c r="H267" s="43"/>
-      <c r="I267" s="44" t="str">
+      <c r="H267" s="42"/>
+      <c r="I267" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J267" s="44"/>
+      <c r="J267" s="43"/>
       <c r="K267" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10716,29 +10698,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N267" s="42"/>
-      <c r="O267" s="42"/>
-      <c r="P267" s="42"/>
-      <c r="Q267" s="63"/>
-      <c r="R267" s="65"/>
+      <c r="N267" s="41"/>
+      <c r="O267" s="41"/>
+      <c r="P267" s="41"/>
+      <c r="Q267" s="50"/>
+      <c r="R267" s="53"/>
     </row>
     <row r="268" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="16"/>
-      <c r="B268" s="63"/>
-      <c r="C268" s="61"/>
+      <c r="A268" s="15"/>
+      <c r="B268" s="50"/>
+      <c r="C268" s="52"/>
       <c r="D268" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E268" s="36"/>
-      <c r="F268" s="23"/>
+      <c r="E268" s="35"/>
+      <c r="F268" s="22"/>
       <c r="G268" s="9"/>
-      <c r="H268" s="43"/>
-      <c r="I268" s="44" t="str">
+      <c r="H268" s="42"/>
+      <c r="I268" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J268" s="44"/>
+      <c r="J268" s="43"/>
       <c r="K268" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10751,29 +10733,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N268" s="42"/>
-      <c r="O268" s="42"/>
-      <c r="P268" s="42"/>
-      <c r="Q268" s="63"/>
-      <c r="R268" s="65"/>
+      <c r="N268" s="41"/>
+      <c r="O268" s="41"/>
+      <c r="P268" s="41"/>
+      <c r="Q268" s="50"/>
+      <c r="R268" s="53"/>
     </row>
     <row r="269" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="16"/>
-      <c r="B269" s="63"/>
-      <c r="C269" s="61"/>
+      <c r="A269" s="15"/>
+      <c r="B269" s="50"/>
+      <c r="C269" s="52"/>
       <c r="D269" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E269" s="36"/>
-      <c r="F269" s="23"/>
+      <c r="E269" s="35"/>
+      <c r="F269" s="22"/>
       <c r="G269" s="9"/>
-      <c r="H269" s="43"/>
-      <c r="I269" s="44" t="str">
+      <c r="H269" s="42"/>
+      <c r="I269" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J269" s="44"/>
+      <c r="J269" s="43"/>
       <c r="K269" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10786,29 +10768,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N269" s="42"/>
-      <c r="O269" s="42"/>
-      <c r="P269" s="42"/>
-      <c r="Q269" s="63"/>
-      <c r="R269" s="65"/>
+      <c r="N269" s="41"/>
+      <c r="O269" s="41"/>
+      <c r="P269" s="41"/>
+      <c r="Q269" s="50"/>
+      <c r="R269" s="53"/>
     </row>
     <row r="270" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="16"/>
-      <c r="B270" s="63"/>
-      <c r="C270" s="61"/>
+      <c r="A270" s="15"/>
+      <c r="B270" s="50"/>
+      <c r="C270" s="52"/>
       <c r="D270" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E270" s="36"/>
-      <c r="F270" s="23"/>
+      <c r="E270" s="35"/>
+      <c r="F270" s="22"/>
       <c r="G270" s="9"/>
-      <c r="H270" s="43"/>
-      <c r="I270" s="44" t="str">
+      <c r="H270" s="42"/>
+      <c r="I270" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J270" s="44"/>
+      <c r="J270" s="43"/>
       <c r="K270" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10821,29 +10803,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N270" s="42"/>
-      <c r="O270" s="42"/>
-      <c r="P270" s="42"/>
-      <c r="Q270" s="63"/>
-      <c r="R270" s="65"/>
+      <c r="N270" s="41"/>
+      <c r="O270" s="41"/>
+      <c r="P270" s="41"/>
+      <c r="Q270" s="50"/>
+      <c r="R270" s="53"/>
     </row>
     <row r="271" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="16"/>
-      <c r="B271" s="63"/>
-      <c r="C271" s="61"/>
+      <c r="A271" s="15"/>
+      <c r="B271" s="50"/>
+      <c r="C271" s="52"/>
       <c r="D271" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E271" s="26"/>
-      <c r="F271" s="23"/>
+      <c r="E271" s="25"/>
+      <c r="F271" s="22"/>
       <c r="G271" s="9"/>
-      <c r="H271" s="43"/>
-      <c r="I271" s="44" t="str">
+      <c r="H271" s="42"/>
+      <c r="I271" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J271" s="44"/>
+      <c r="J271" s="43"/>
       <c r="K271" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10856,29 +10838,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N271" s="42"/>
-      <c r="O271" s="42"/>
-      <c r="P271" s="42"/>
-      <c r="Q271" s="63"/>
-      <c r="R271" s="65"/>
+      <c r="N271" s="41"/>
+      <c r="O271" s="41"/>
+      <c r="P271" s="41"/>
+      <c r="Q271" s="50"/>
+      <c r="R271" s="53"/>
     </row>
     <row r="272" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="16"/>
-      <c r="B272" s="63"/>
-      <c r="C272" s="61"/>
+      <c r="A272" s="15"/>
+      <c r="B272" s="50"/>
+      <c r="C272" s="52"/>
       <c r="D272" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E272" s="26"/>
-      <c r="F272" s="23"/>
+      <c r="E272" s="25"/>
+      <c r="F272" s="22"/>
       <c r="G272" s="9"/>
-      <c r="H272" s="43"/>
-      <c r="I272" s="44" t="str">
+      <c r="H272" s="42"/>
+      <c r="I272" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J272" s="44"/>
+      <c r="J272" s="43"/>
       <c r="K272" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10891,29 +10873,29 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N272" s="42"/>
-      <c r="O272" s="42"/>
-      <c r="P272" s="42"/>
-      <c r="Q272" s="63"/>
-      <c r="R272" s="65"/>
+      <c r="N272" s="41"/>
+      <c r="O272" s="41"/>
+      <c r="P272" s="41"/>
+      <c r="Q272" s="50"/>
+      <c r="R272" s="53"/>
     </row>
     <row r="273" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="25"/>
-      <c r="B273" s="64"/>
-      <c r="C273" s="61"/>
+      <c r="A273" s="24"/>
+      <c r="B273" s="51"/>
+      <c r="C273" s="52"/>
       <c r="D273" s="4" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
       </c>
-      <c r="E273" s="26"/>
-      <c r="F273" s="13"/>
+      <c r="E273" s="25"/>
+      <c r="F273" s="12"/>
       <c r="G273" s="9"/>
-      <c r="H273" s="43"/>
-      <c r="I273" s="44" t="str">
+      <c r="H273" s="42"/>
+      <c r="I273" s="43" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
       </c>
-      <c r="J273" s="44"/>
+      <c r="J273" s="43"/>
       <c r="K273" s="4" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -10926,60 +10908,60 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="N273" s="42"/>
-      <c r="O273" s="42"/>
-      <c r="P273" s="42"/>
-      <c r="Q273" s="64"/>
-      <c r="R273" s="65"/>
+      <c r="N273" s="41"/>
+      <c r="O273" s="41"/>
+      <c r="P273" s="41"/>
+      <c r="Q273" s="51"/>
+      <c r="R273" s="53"/>
     </row>
     <row r="274" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G274" s="46"/>
-      <c r="H274" s="43"/>
-      <c r="I274" s="44"/>
-      <c r="J274" s="44"/>
-      <c r="K274" s="42"/>
-      <c r="L274" s="42"/>
-      <c r="M274" s="42"/>
-      <c r="N274" s="42"/>
-      <c r="O274" s="42"/>
-      <c r="P274" s="42"/>
-      <c r="Q274" s="47"/>
-      <c r="R274" s="43"/>
+      <c r="G274" s="45"/>
+      <c r="H274" s="42"/>
+      <c r="I274" s="43"/>
+      <c r="J274" s="43"/>
+      <c r="K274" s="41"/>
+      <c r="L274" s="41"/>
+      <c r="M274" s="41"/>
+      <c r="N274" s="41"/>
+      <c r="O274" s="41"/>
+      <c r="P274" s="41"/>
+      <c r="Q274" s="46"/>
+      <c r="R274" s="42"/>
     </row>
     <row r="275" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B275" s="48"/>
-      <c r="C275" s="48"/>
-      <c r="D275" s="48"/>
-      <c r="E275" s="49"/>
-      <c r="G275" s="45"/>
-      <c r="H275" s="43"/>
-      <c r="I275" s="44"/>
-      <c r="J275" s="44"/>
-      <c r="K275" s="42"/>
-      <c r="L275" s="42"/>
-      <c r="M275" s="42"/>
-      <c r="N275" s="42"/>
-      <c r="O275" s="42"/>
-      <c r="P275" s="42"/>
-      <c r="Q275" s="47"/>
-      <c r="R275" s="43"/>
+      <c r="A275" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B275" s="47"/>
+      <c r="C275" s="47"/>
+      <c r="D275" s="47"/>
+      <c r="E275" s="48"/>
+      <c r="G275" s="44"/>
+      <c r="H275" s="42"/>
+      <c r="I275" s="43"/>
+      <c r="J275" s="43"/>
+      <c r="K275" s="41"/>
+      <c r="L275" s="41"/>
+      <c r="M275" s="41"/>
+      <c r="N275" s="41"/>
+      <c r="O275" s="41"/>
+      <c r="P275" s="41"/>
+      <c r="Q275" s="46"/>
+      <c r="R275" s="42"/>
     </row>
     <row r="276" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G276" s="45"/>
-      <c r="H276" s="43"/>
-      <c r="I276" s="44"/>
-      <c r="J276" s="44"/>
-      <c r="K276" s="42"/>
-      <c r="L276" s="42"/>
-      <c r="M276" s="42"/>
-      <c r="N276" s="42"/>
-      <c r="O276" s="42"/>
-      <c r="P276" s="42"/>
-      <c r="Q276" s="47"/>
-      <c r="R276" s="43"/>
+      <c r="G276" s="44"/>
+      <c r="H276" s="42"/>
+      <c r="I276" s="43"/>
+      <c r="J276" s="43"/>
+      <c r="K276" s="41"/>
+      <c r="L276" s="41"/>
+      <c r="M276" s="41"/>
+      <c r="N276" s="41"/>
+      <c r="O276" s="41"/>
+      <c r="P276" s="41"/>
+      <c r="Q276" s="46"/>
+      <c r="R276" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P273">
@@ -10990,24 +10972,32 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
-    <mergeCell ref="B214:B228"/>
-    <mergeCell ref="C214:C228"/>
-    <mergeCell ref="Q214:Q228"/>
-    <mergeCell ref="B259:B273"/>
-    <mergeCell ref="C259:C273"/>
-    <mergeCell ref="Q259:Q273"/>
-    <mergeCell ref="B229:B243"/>
-    <mergeCell ref="C229:C243"/>
-    <mergeCell ref="Q229:Q243"/>
-    <mergeCell ref="B244:B258"/>
-    <mergeCell ref="C244:C258"/>
-    <mergeCell ref="Q244:Q258"/>
-    <mergeCell ref="B184:B198"/>
-    <mergeCell ref="C184:C198"/>
-    <mergeCell ref="Q184:Q198"/>
-    <mergeCell ref="B199:B213"/>
-    <mergeCell ref="C199:C213"/>
-    <mergeCell ref="Q199:Q213"/>
+    <mergeCell ref="R4:R93"/>
+    <mergeCell ref="A19:A78"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="C19:C33"/>
+    <mergeCell ref="Q19:Q33"/>
+    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="C34:C48"/>
+    <mergeCell ref="Q34:Q48"/>
+    <mergeCell ref="B49:B63"/>
+    <mergeCell ref="C49:C63"/>
+    <mergeCell ref="Q49:Q63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="C64:C78"/>
+    <mergeCell ref="Q64:Q78"/>
+    <mergeCell ref="A79:A93"/>
+    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="Q4:Q18"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="Q79:Q93"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="Q94:Q108"/>
     <mergeCell ref="R94:R273"/>
     <mergeCell ref="B109:B123"/>
     <mergeCell ref="C109:C123"/>
@@ -11024,106 +11014,98 @@
     <mergeCell ref="B169:B183"/>
     <mergeCell ref="C169:C183"/>
     <mergeCell ref="Q169:Q183"/>
-    <mergeCell ref="C79:C93"/>
-    <mergeCell ref="Q79:Q93"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="Q94:Q108"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="R4:R93"/>
-    <mergeCell ref="A19:A78"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="C19:C33"/>
-    <mergeCell ref="Q19:Q33"/>
-    <mergeCell ref="B34:B48"/>
-    <mergeCell ref="C34:C48"/>
-    <mergeCell ref="Q34:Q48"/>
-    <mergeCell ref="B49:B63"/>
-    <mergeCell ref="C49:C63"/>
-    <mergeCell ref="Q49:Q63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="C64:C78"/>
-    <mergeCell ref="Q64:Q78"/>
-    <mergeCell ref="A79:A93"/>
-    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="B184:B198"/>
+    <mergeCell ref="C184:C198"/>
+    <mergeCell ref="Q184:Q198"/>
+    <mergeCell ref="B199:B213"/>
+    <mergeCell ref="C199:C213"/>
+    <mergeCell ref="Q199:Q213"/>
+    <mergeCell ref="B214:B228"/>
+    <mergeCell ref="C214:C228"/>
+    <mergeCell ref="Q214:Q228"/>
+    <mergeCell ref="B259:B273"/>
+    <mergeCell ref="C259:C273"/>
+    <mergeCell ref="Q259:Q273"/>
+    <mergeCell ref="B229:B243"/>
+    <mergeCell ref="C229:C243"/>
+    <mergeCell ref="Q229:Q243"/>
+    <mergeCell ref="B244:B258"/>
+    <mergeCell ref="C244:C258"/>
+    <mergeCell ref="Q244:Q258"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J276">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="17" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G258">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="16" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H276">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="12" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
       <formula>N4="FI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274:R276">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>R274="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
       <formula>R274="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
       <formula>N4="NI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="9" stopIfTrue="1">
       <formula>N4="PI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N267:Q276 P266:Q266 N4:Q265 N266">
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
       <formula>N4="LI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R273">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D273">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G259:G273">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>G259="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>G259="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11145,12 +11127,29 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E36" r:id="rId1"/>
-    <hyperlink ref="E51" r:id="rId2" location="OLE_LINK5 1,6470,6502,1,,Project’s Process Defect Density" display="Project’s Process Defect Density"/>
-    <hyperlink ref="E66" r:id="rId3" location="OLE_LINK5 1,6470,6502,1,,Project’s Process Defect Density" display="Project’s Process Defect Density"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E22" r:id="rId3" display="action items page for PQA head"/>
+    <hyperlink ref="E19" r:id="rId4" display="https://gil.einframe.com/rptprojectoverview.aspx"/>
+    <hyperlink ref="E21" r:id="rId5" display="https://gil.einframe.com/rptprojecttasks.aspx"/>
+    <hyperlink ref="E20" r:id="rId6" display="https://gil.einframe.com/rptprojectoverview.aspx"/>
+    <hyperlink ref="E36" r:id="rId7"/>
+    <hyperlink ref="E35" r:id="rId8"/>
+    <hyperlink ref="E37" r:id="rId9"/>
+    <hyperlink ref="E51" r:id="rId10"/>
+    <hyperlink ref="E49" r:id="rId11"/>
+    <hyperlink ref="E50" r:id="rId12"/>
+    <hyperlink ref="E52" r:id="rId13"/>
+    <hyperlink ref="E64" r:id="rId14"/>
+    <hyperlink ref="E65" r:id="rId15"/>
+    <hyperlink ref="E66" r:id="rId16"/>
+    <hyperlink ref="E79" r:id="rId17"/>
+    <hyperlink ref="E81" r:id="rId18"/>
+    <hyperlink ref="E80" r:id="rId19"/>
+    <hyperlink ref="E82" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;P&amp;R&amp;A</oddHeader>
   </headerFooter>
